--- a/Ken_Jpn_USA.xlsx
+++ b/Ken_Jpn_USA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>rgdpe</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>rowNaN</t>
+  </si>
+  <si>
+    <t>rgdpeCapita</t>
+  </si>
+  <si>
+    <t>rgdpoCapita</t>
+  </si>
+  <si>
+    <t>rgdpeCapitaYOY</t>
+  </si>
+  <si>
+    <t>rgdpoCapitaYOY</t>
+  </si>
+  <si>
+    <t>rgdpeCapitaYOY10y</t>
+  </si>
+  <si>
+    <t>rgdpoCapitaYOY10y</t>
   </si>
   <si>
     <t>country</t>
@@ -443,18 +461,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U211"/>
+  <dimension ref="A1:AA211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -513,10 +531,28 @@
       <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>1950</v>
@@ -534,10 +570,10 @@
         <v>1.143694043159485</v>
       </c>
       <c r="U2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>1951</v>
@@ -567,10 +603,16 @@
         <v>0.004872315523002343</v>
       </c>
       <c r="U3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>14</v>
+      </c>
+      <c r="V3">
+        <v>2020.423471481285</v>
+      </c>
+      <c r="W3">
+        <v>1957.606887042786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1952</v>
@@ -600,10 +642,22 @@
         <v>0.004872237065471905</v>
       </c>
       <c r="U4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>12</v>
+      </c>
+      <c r="V4">
+        <v>1797.258817643747</v>
+      </c>
+      <c r="W4">
+        <v>1757.86084491189</v>
+      </c>
+      <c r="X4">
+        <v>-0.1104543958172902</v>
+      </c>
+      <c r="Y4">
+        <v>-0.1020358292837017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>1953</v>
@@ -633,10 +687,22 @@
         <v>0.004872354872427129</v>
       </c>
       <c r="U5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>12</v>
+      </c>
+      <c r="V5">
+        <v>1685.914401187068</v>
+      </c>
+      <c r="W5">
+        <v>1625.755220985887</v>
+      </c>
+      <c r="X5">
+        <v>-0.06195235508854263</v>
+      </c>
+      <c r="Y5">
+        <v>-0.07515135473230504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>1954</v>
@@ -672,10 +738,22 @@
         <v>0.004872253701108997</v>
       </c>
       <c r="U6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>1864.818013440095</v>
+      </c>
+      <c r="W6">
+        <v>1741.302798276886</v>
+      </c>
+      <c r="X6">
+        <v>0.1061166641242635</v>
+      </c>
+      <c r="Y6">
+        <v>0.0710731700562703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>1955</v>
@@ -717,10 +795,22 @@
         <v>-0.005788112191730257</v>
       </c>
       <c r="U7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <v>1949.484870912316</v>
+      </c>
+      <c r="W7">
+        <v>1794.329080865252</v>
+      </c>
+      <c r="X7">
+        <v>0.04540220914963896</v>
+      </c>
+      <c r="Y7">
+        <v>0.03045207452766897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>1956</v>
@@ -762,10 +852,22 @@
         <v>-0.06717929707920006</v>
       </c>
       <c r="U8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V8">
+        <v>1933.961488407121</v>
+      </c>
+      <c r="W8">
+        <v>1805.206426952259</v>
+      </c>
+      <c r="X8">
+        <v>-0.007962812503351558</v>
+      </c>
+      <c r="Y8">
+        <v>0.006062068660093042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>1957</v>
@@ -807,10 +909,22 @@
         <v>0.006003732373598939</v>
       </c>
       <c r="U9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>1954.152227413654</v>
+      </c>
+      <c r="W9">
+        <v>1837.952871462473</v>
+      </c>
+      <c r="X9">
+        <v>0.01044009362521631</v>
+      </c>
+      <c r="Y9">
+        <v>0.01813999995861977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>1958</v>
@@ -852,10 +966,22 @@
         <v>-0.05947924565081589</v>
       </c>
       <c r="U10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>1913.65707376225</v>
+      </c>
+      <c r="W10">
+        <v>1801.484038730797</v>
+      </c>
+      <c r="X10">
+        <v>-0.02072261980582724</v>
+      </c>
+      <c r="Y10">
+        <v>-0.01984209350409375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>1959</v>
@@ -897,10 +1023,22 @@
         <v>-0.09782219629005737</v>
       </c>
       <c r="U11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V11">
+        <v>1836.631342196156</v>
+      </c>
+      <c r="W11">
+        <v>1700.557978204224</v>
+      </c>
+      <c r="X11">
+        <v>-0.04025054050810779</v>
+      </c>
+      <c r="Y11">
+        <v>-0.05602384387356503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>1960</v>
@@ -954,10 +1092,22 @@
         <v>0.004561651759384327</v>
       </c>
       <c r="U12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>1932.817029484822</v>
+      </c>
+      <c r="W12">
+        <v>1792.675001824997</v>
+      </c>
+      <c r="X12">
+        <v>0.05237070993989029</v>
+      </c>
+      <c r="Y12">
+        <v>0.05416870509645768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>1961</v>
@@ -1013,8 +1163,26 @@
       <c r="U13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13">
+        <v>1889.037150530504</v>
+      </c>
+      <c r="W13">
+        <v>1724.427528670001</v>
+      </c>
+      <c r="X13">
+        <v>-0.02265081396038146</v>
+      </c>
+      <c r="Y13">
+        <v>-0.03807018733764782</v>
+      </c>
+      <c r="Z13">
+        <v>-0.004966386084449203</v>
+      </c>
+      <c r="AA13">
+        <v>-0.01112272904322038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>1962</v>
@@ -1070,8 +1238,26 @@
       <c r="U14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14">
+        <v>1952.227403018571</v>
+      </c>
+      <c r="W14">
+        <v>1803.939047694623</v>
+      </c>
+      <c r="X14">
+        <v>0.03345103746123832</v>
+      </c>
+      <c r="Y14">
+        <v>0.04610893627170697</v>
+      </c>
+      <c r="Z14">
+        <v>0.009424157243403649</v>
+      </c>
+      <c r="AA14">
+        <v>0.003691747512320486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>1963</v>
@@ -1127,8 +1313,26 @@
       <c r="U15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15">
+        <v>1941.480330112235</v>
+      </c>
+      <c r="W15">
+        <v>1790.329077526373</v>
+      </c>
+      <c r="X15">
+        <v>-0.005505031273364372</v>
+      </c>
+      <c r="Y15">
+        <v>-0.007544584272757449</v>
+      </c>
+      <c r="Z15">
+        <v>0.01506888962492147</v>
+      </c>
+      <c r="AA15">
+        <v>0.01045242455827524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>1964</v>
@@ -1190,8 +1394,26 @@
       <c r="U16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16">
+        <v>2040.993248166623</v>
+      </c>
+      <c r="W16">
+        <v>1895.294089794684</v>
+      </c>
+      <c r="X16">
+        <v>0.05125620718940564</v>
+      </c>
+      <c r="Y16">
+        <v>0.05862889319394669</v>
+      </c>
+      <c r="Z16">
+        <v>0.009582843931435683</v>
+      </c>
+      <c r="AA16">
+        <v>0.009207996872042884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>1965</v>
@@ -1253,8 +1475,26 @@
       <c r="U17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17">
+        <v>2054.378111730841</v>
+      </c>
+      <c r="W17">
+        <v>1935.074495824775</v>
+      </c>
+      <c r="X17">
+        <v>0.006558014621675762</v>
+      </c>
+      <c r="Y17">
+        <v>0.02098904135473778</v>
+      </c>
+      <c r="Z17">
+        <v>0.005698424478639363</v>
+      </c>
+      <c r="AA17">
+        <v>0.008261693554749766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>1966</v>
@@ -1316,8 +1556,26 @@
       <c r="U18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18">
+        <v>2197.073971437589</v>
+      </c>
+      <c r="W18">
+        <v>2062.165913417662</v>
+      </c>
+      <c r="X18">
+        <v>0.0694593944960427</v>
+      </c>
+      <c r="Y18">
+        <v>0.06567779063137183</v>
+      </c>
+      <c r="Z18">
+        <v>0.01344064517857879</v>
+      </c>
+      <c r="AA18">
+        <v>0.01422326575187765</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>1967</v>
@@ -1379,8 +1637,26 @@
       <c r="U19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19">
+        <v>2209.17471903287</v>
+      </c>
+      <c r="W19">
+        <v>2075.73504532926</v>
+      </c>
+      <c r="X19">
+        <v>0.005507665082101378</v>
+      </c>
+      <c r="Y19">
+        <v>0.00658003889178355</v>
+      </c>
+      <c r="Z19">
+        <v>0.0129474023242673</v>
+      </c>
+      <c r="AA19">
+        <v>0.01306726964519402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>1968</v>
@@ -1442,8 +1718,26 @@
       <c r="U20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20">
+        <v>2132.551339555006</v>
+      </c>
+      <c r="W20">
+        <v>2001.324555744789</v>
+      </c>
+      <c r="X20">
+        <v>-0.03468416455146119</v>
+      </c>
+      <c r="Y20">
+        <v>-0.0358477782373561</v>
+      </c>
+      <c r="Z20">
+        <v>0.0115512478497039</v>
+      </c>
+      <c r="AA20">
+        <v>0.01146670117186779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>1969</v>
@@ -1505,8 +1799,26 @@
       <c r="U21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21">
+        <v>2193.986925969788</v>
+      </c>
+      <c r="W21">
+        <v>2068.208114031976</v>
+      </c>
+      <c r="X21">
+        <v>0.0288084911604527</v>
+      </c>
+      <c r="Y21">
+        <v>0.03341964605151036</v>
+      </c>
+      <c r="Z21">
+        <v>0.01845715101655995</v>
+      </c>
+      <c r="AA21">
+        <v>0.02041105016437533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>1970</v>
@@ -1568,8 +1880,26 @@
       <c r="U22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22">
+        <v>2033.569594438511</v>
+      </c>
+      <c r="W22">
+        <v>1851.894786468626</v>
+      </c>
+      <c r="X22">
+        <v>-0.07311681288181282</v>
+      </c>
+      <c r="Y22">
+        <v>-0.1045897296774676</v>
+      </c>
+      <c r="Z22">
+        <v>0.005908398734389639</v>
+      </c>
+      <c r="AA22">
+        <v>0.004535206686982793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>1971</v>
@@ -1631,8 +1961,26 @@
       <c r="U23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>2116.221583483418</v>
+      </c>
+      <c r="W23">
+        <v>1946.164955679361</v>
+      </c>
+      <c r="X23">
+        <v>0.04064379663766953</v>
+      </c>
+      <c r="Y23">
+        <v>0.05090471116369351</v>
+      </c>
+      <c r="Z23">
+        <v>0.01223785979419474</v>
+      </c>
+      <c r="AA23">
+        <v>0.01343269653711693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>1972</v>
@@ -1694,8 +2042,26 @@
       <c r="U24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24">
+        <v>2212.722979428583</v>
+      </c>
+      <c r="W24">
+        <v>2068.787277871652</v>
+      </c>
+      <c r="X24">
+        <v>0.04560079941454818</v>
+      </c>
+      <c r="Y24">
+        <v>0.0630071576586818</v>
+      </c>
+      <c r="Z24">
+        <v>0.01345283598952573</v>
+      </c>
+      <c r="AA24">
+        <v>0.01512251867581441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>1973</v>
@@ -1757,8 +2123,26 @@
       <c r="U25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25">
+        <v>2180.907370084706</v>
+      </c>
+      <c r="W25">
+        <v>2057.644421429223</v>
+      </c>
+      <c r="X25">
+        <v>-0.01437848733875087</v>
+      </c>
+      <c r="Y25">
+        <v>-0.00538617796117383</v>
+      </c>
+      <c r="Z25">
+        <v>0.01256549038298707</v>
+      </c>
+      <c r="AA25">
+        <v>0.01533835930697277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>1974</v>
@@ -1820,8 +2204,26 @@
       <c r="U26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26">
+        <v>2278.130328779997</v>
+      </c>
+      <c r="W26">
+        <v>2214.636236154348</v>
+      </c>
+      <c r="X26">
+        <v>0.04457913253395771</v>
+      </c>
+      <c r="Y26">
+        <v>0.07629686309750223</v>
+      </c>
+      <c r="Z26">
+        <v>0.01189778291744228</v>
+      </c>
+      <c r="AA26">
+        <v>0.01710515629732833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>1975</v>
@@ -1883,8 +2285,26 @@
       <c r="U27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27">
+        <v>2155.583821474106</v>
+      </c>
+      <c r="W27">
+        <v>2146.270837856106</v>
+      </c>
+      <c r="X27">
+        <v>-0.05379257971229345</v>
+      </c>
+      <c r="Y27">
+        <v>-0.03086980930870926</v>
+      </c>
+      <c r="Z27">
+        <v>0.00586272348404536</v>
+      </c>
+      <c r="AA27">
+        <v>0.01191927123098362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>1976</v>
@@ -1946,8 +2366,26 @@
       <c r="U28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28">
+        <v>2161.490020519439</v>
+      </c>
+      <c r="W28">
+        <v>2107.719585742964</v>
+      </c>
+      <c r="X28">
+        <v>0.0027399533186767</v>
+      </c>
+      <c r="Y28">
+        <v>-0.01796196986567192</v>
+      </c>
+      <c r="Z28">
+        <v>-0.0008092206336912406</v>
+      </c>
+      <c r="AA28">
+        <v>0.003555295181279247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>1977</v>
@@ -2009,8 +2447,26 @@
       <c r="U29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29">
+        <v>2429.926762770388</v>
+      </c>
+      <c r="W29">
+        <v>2271.349023718201</v>
+      </c>
+      <c r="X29">
+        <v>0.1241905998651983</v>
+      </c>
+      <c r="Y29">
+        <v>0.07763340013636529</v>
+      </c>
+      <c r="Z29">
+        <v>0.01105907284461845</v>
+      </c>
+      <c r="AA29">
+        <v>0.01066063130573742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>1978</v>
@@ -2072,8 +2528,26 @@
       <c r="U30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30">
+        <v>2430.464651862265</v>
+      </c>
+      <c r="W30">
+        <v>2366.015979097459</v>
+      </c>
+      <c r="X30">
+        <v>0.000221360207277862</v>
+      </c>
+      <c r="Y30">
+        <v>0.04167873558432146</v>
+      </c>
+      <c r="Z30">
+        <v>0.01454962532049236</v>
+      </c>
+      <c r="AA30">
+        <v>0.01841328268790517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>1979</v>
@@ -2135,8 +2609,26 @@
       <c r="U31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31">
+        <v>2317.377899172358</v>
+      </c>
+      <c r="W31">
+        <v>2279.389942167815</v>
+      </c>
+      <c r="X31">
+        <v>-0.04652886130364325</v>
+      </c>
+      <c r="Y31">
+        <v>-0.0366126170300372</v>
+      </c>
+      <c r="Z31">
+        <v>0.007015890074082765</v>
+      </c>
+      <c r="AA31">
+        <v>0.01141005637975042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>1980</v>
@@ -2198,8 +2690,26 @@
       <c r="U32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32">
+        <v>2291.16185207019</v>
+      </c>
+      <c r="W32">
+        <v>2313.600235960429</v>
+      </c>
+      <c r="X32">
+        <v>-0.01131280621582303</v>
+      </c>
+      <c r="Y32">
+        <v>0.01500853064222881</v>
+      </c>
+      <c r="Z32">
+        <v>0.01319629074068174</v>
+      </c>
+      <c r="AA32">
+        <v>0.02336988241172007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>1981</v>
@@ -2261,8 +2771,26 @@
       <c r="U33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33">
+        <v>2204.035557196518</v>
+      </c>
+      <c r="W33">
+        <v>2272.312618667487</v>
+      </c>
+      <c r="X33">
+        <v>-0.03802712357267523</v>
+      </c>
+      <c r="Y33">
+        <v>-0.01784561422980787</v>
+      </c>
+      <c r="Z33">
+        <v>0.005329198719647266</v>
+      </c>
+      <c r="AA33">
+        <v>0.01649484987236993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>1982</v>
@@ -2324,8 +2852,26 @@
       <c r="U34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34">
+        <v>2187.851720719841</v>
+      </c>
+      <c r="W34">
+        <v>2263.126098958994</v>
+      </c>
+      <c r="X34">
+        <v>-0.007342820048358137</v>
+      </c>
+      <c r="Y34">
+        <v>-0.004042806272791877</v>
+      </c>
+      <c r="Z34">
+        <v>3.483677335663488E-05</v>
+      </c>
+      <c r="AA34">
+        <v>0.009789853479222562</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>1983</v>
@@ -2387,8 +2933,26 @@
       <c r="U35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35">
+        <v>2216.02713479105</v>
+      </c>
+      <c r="W35">
+        <v>2302.2310874163</v>
+      </c>
+      <c r="X35">
+        <v>0.01287811866059118</v>
+      </c>
+      <c r="Y35">
+        <v>0.0172791911486039</v>
+      </c>
+      <c r="Z35">
+        <v>0.00276049737329084</v>
+      </c>
+      <c r="AA35">
+        <v>0.01205639039020034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>1984</v>
@@ -2450,8 +3014,26 @@
       <c r="U36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36">
+        <v>2303.462120697529</v>
+      </c>
+      <c r="W36">
+        <v>2370.860430129275</v>
+      </c>
+      <c r="X36">
+        <v>0.03945573794371585</v>
+      </c>
+      <c r="Y36">
+        <v>0.02980992789476872</v>
+      </c>
+      <c r="Z36">
+        <v>0.002248157914266654</v>
+      </c>
+      <c r="AA36">
+        <v>0.007407696869926985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>1985</v>
@@ -2513,8 +3095,26 @@
       <c r="U37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37">
+        <v>2276.323404791501</v>
+      </c>
+      <c r="W37">
+        <v>2331.483292877512</v>
+      </c>
+      <c r="X37">
+        <v>-0.01178170704965171</v>
+      </c>
+      <c r="Y37">
+        <v>-0.01660879600981656</v>
+      </c>
+      <c r="Z37">
+        <v>0.006449245180530828</v>
+      </c>
+      <c r="AA37">
+        <v>0.008833798199816254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>1986</v>
@@ -2576,8 +3176,26 @@
       <c r="U38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38">
+        <v>2372.36928829044</v>
+      </c>
+      <c r="W38">
+        <v>2424.983074415396</v>
+      </c>
+      <c r="X38">
+        <v>0.04219342616113717</v>
+      </c>
+      <c r="Y38">
+        <v>0.04010313169453877</v>
+      </c>
+      <c r="Z38">
+        <v>0.01039459246477688</v>
+      </c>
+      <c r="AA38">
+        <v>0.01464030835583732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>1987</v>
@@ -2639,8 +3257,26 @@
       <c r="U39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39">
+        <v>2293.080369265504</v>
+      </c>
+      <c r="W39">
+        <v>2367.120946671994</v>
+      </c>
+      <c r="X39">
+        <v>-0.03342182830316134</v>
+      </c>
+      <c r="Y39">
+        <v>-0.02386083777403308</v>
+      </c>
+      <c r="Z39">
+        <v>-0.005366650352059089</v>
+      </c>
+      <c r="AA39">
+        <v>0.004490884564797488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>1988</v>
@@ -2702,8 +3338,26 @@
       <c r="U40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="V40">
+        <v>2331.82447230891</v>
+      </c>
+      <c r="W40">
+        <v>2419.752087925178</v>
+      </c>
+      <c r="X40">
+        <v>0.01689609468673626</v>
+      </c>
+      <c r="Y40">
+        <v>0.02223424254142117</v>
+      </c>
+      <c r="Z40">
+        <v>-0.003699176904113251</v>
+      </c>
+      <c r="AA40">
+        <v>0.002546435260507459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>1989</v>
@@ -2765,8 +3419,26 @@
       <c r="U41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="V41">
+        <v>2295.098614503074</v>
+      </c>
+      <c r="W41">
+        <v>2361.038221433319</v>
+      </c>
+      <c r="X41">
+        <v>-0.0157498380525488</v>
+      </c>
+      <c r="Y41">
+        <v>-0.02426441402193529</v>
+      </c>
+      <c r="Z41">
+        <v>-0.0006212745790038062</v>
+      </c>
+      <c r="AA41">
+        <v>0.003781255561317649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>1990</v>
@@ -2828,8 +3500,26 @@
       <c r="U42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="V42">
+        <v>2279.136745451032</v>
+      </c>
+      <c r="W42">
+        <v>2394.608506748088</v>
+      </c>
+      <c r="X42">
+        <v>-0.006954763926559185</v>
+      </c>
+      <c r="Y42">
+        <v>0.01421844212856032</v>
+      </c>
+      <c r="Z42">
+        <v>-0.0001854703500774214</v>
+      </c>
+      <c r="AA42">
+        <v>0.0037022467099508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>1991</v>
@@ -2891,8 +3581,26 @@
       <c r="U43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="V43">
+        <v>2296.822402254219</v>
+      </c>
+      <c r="W43">
+        <v>2366.405598282693</v>
+      </c>
+      <c r="X43">
+        <v>0.007759805039555551</v>
+      </c>
+      <c r="Y43">
+        <v>-0.01177766987209737</v>
+      </c>
+      <c r="Z43">
+        <v>0.004393222511145657</v>
+      </c>
+      <c r="AA43">
+        <v>0.004309041145721852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>1992</v>
@@ -2954,8 +3662,26 @@
       <c r="U44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44">
+        <v>2190.086567142176</v>
+      </c>
+      <c r="W44">
+        <v>2238.066226986763</v>
+      </c>
+      <c r="X44">
+        <v>-0.04647108762405282</v>
+      </c>
+      <c r="Y44">
+        <v>-0.05423388593614949</v>
+      </c>
+      <c r="Z44">
+        <v>0.0004803957535761877</v>
+      </c>
+      <c r="AA44">
+        <v>-0.0007100668206139096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>1993</v>
@@ -3017,8 +3743,26 @@
       <c r="U45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45">
+        <v>2234.853043570347</v>
+      </c>
+      <c r="W45">
+        <v>2295.856123083882</v>
+      </c>
+      <c r="X45">
+        <v>0.02044050545754735</v>
+      </c>
+      <c r="Y45">
+        <v>0.02582135211205284</v>
+      </c>
+      <c r="Z45">
+        <v>0.001236634433271805</v>
+      </c>
+      <c r="AA45">
+        <v>0.0001441492757309846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>1994</v>
@@ -3080,8 +3824,26 @@
       <c r="U46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46">
+        <v>2474.539304006365</v>
+      </c>
+      <c r="W46">
+        <v>2560.84256324634</v>
+      </c>
+      <c r="X46">
+        <v>0.1072492265769299</v>
+      </c>
+      <c r="Y46">
+        <v>0.115419445277136</v>
+      </c>
+      <c r="Z46">
+        <v>0.008015983296593213</v>
+      </c>
+      <c r="AA46">
+        <v>0.00870510101396771</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>1995</v>
@@ -3143,8 +3905,26 @@
       <c r="U47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="V47">
+        <v>2297.025356020125</v>
+      </c>
+      <c r="W47">
+        <v>2390.063937512062</v>
+      </c>
+      <c r="X47">
+        <v>-0.0717361602213545</v>
+      </c>
+      <c r="Y47">
+        <v>-0.06668845175620043</v>
+      </c>
+      <c r="Z47">
+        <v>0.002020537979422934</v>
+      </c>
+      <c r="AA47">
+        <v>0.003697135439329323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>1996</v>
@@ -3206,8 +3986,26 @@
       <c r="U48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48">
+        <v>2346.883688415739</v>
+      </c>
+      <c r="W48">
+        <v>2417.534742229052</v>
+      </c>
+      <c r="X48">
+        <v>0.02170560819668061</v>
+      </c>
+      <c r="Y48">
+        <v>0.01149375306904362</v>
+      </c>
+      <c r="Z48">
+        <v>-2.824381702272276E-05</v>
+      </c>
+      <c r="AA48">
+        <v>0.0008361975767798072</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>1997</v>
@@ -3269,8 +4067,26 @@
       <c r="U49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="V49">
+        <v>2290.924079610693</v>
+      </c>
+      <c r="W49">
+        <v>2391.276735691777</v>
+      </c>
+      <c r="X49">
+        <v>-0.02384421907283407</v>
+      </c>
+      <c r="Y49">
+        <v>-0.01086148053163618</v>
+      </c>
+      <c r="Z49">
+        <v>0.0009295171060100044</v>
+      </c>
+      <c r="AA49">
+        <v>0.002136133301019498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>1998</v>
@@ -3332,8 +4148,26 @@
       <c r="U50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="V50">
+        <v>2263.685899404803</v>
+      </c>
+      <c r="W50">
+        <v>2336.857226707041</v>
+      </c>
+      <c r="X50">
+        <v>-0.01188960404594382</v>
+      </c>
+      <c r="Y50">
+        <v>-0.0227575119903438</v>
+      </c>
+      <c r="Z50">
+        <v>-0.001949052767258003</v>
+      </c>
+      <c r="AA50">
+        <v>-0.002363042152157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>1999</v>
@@ -3395,8 +4229,26 @@
       <c r="U51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="V51">
+        <v>2223.429523682395</v>
+      </c>
+      <c r="W51">
+        <v>2296.618942147314</v>
+      </c>
+      <c r="X51">
+        <v>-0.01778355191989892</v>
+      </c>
+      <c r="Y51">
+        <v>-0.01721897431296157</v>
+      </c>
+      <c r="Z51">
+        <v>-0.002152424153993015</v>
+      </c>
+      <c r="AA51">
+        <v>-0.001658498181259628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>2000</v>
@@ -3458,8 +4310,26 @@
       <c r="U52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="V52">
+        <v>2114.0537968286</v>
+      </c>
+      <c r="W52">
+        <v>2210.079037483717</v>
+      </c>
+      <c r="X52">
+        <v>-0.04919235158515369</v>
+      </c>
+      <c r="Y52">
+        <v>-0.0376814381678324</v>
+      </c>
+      <c r="Z52">
+        <v>-0.006376182919852464</v>
+      </c>
+      <c r="AA52">
+        <v>-0.006848486210898899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>2001</v>
@@ -3521,8 +4391,26 @@
       <c r="U53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="V53">
+        <v>2072.248089892189</v>
+      </c>
+      <c r="W53">
+        <v>2240.343450951002</v>
+      </c>
+      <c r="X53">
+        <v>-0.01977513864553765</v>
+      </c>
+      <c r="Y53">
+        <v>0.01369381499665375</v>
+      </c>
+      <c r="Z53">
+        <v>-0.009129677288361785</v>
+      </c>
+      <c r="AA53">
+        <v>-0.004301337724023789</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>2002</v>
@@ -3584,8 +4472,26 @@
       <c r="U54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="V54">
+        <v>2022.879999411847</v>
+      </c>
+      <c r="W54">
+        <v>2125.705555956723</v>
+      </c>
+      <c r="X54">
+        <v>-0.02382344600588374</v>
+      </c>
+      <c r="Y54">
+        <v>-0.05116978601902118</v>
+      </c>
+      <c r="Z54">
+        <v>-0.006864913126544877</v>
+      </c>
+      <c r="AA54">
+        <v>-0.003994927732310957</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>2003</v>
@@ -3647,8 +4553,26 @@
       <c r="U55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="V55">
+        <v>1987.538099518368</v>
+      </c>
+      <c r="W55">
+        <v>2028.341552638221</v>
+      </c>
+      <c r="X55">
+        <v>-0.01747108078766608</v>
+      </c>
+      <c r="Y55">
+        <v>-0.04580314665202128</v>
+      </c>
+      <c r="Z55">
+        <v>-0.01065607175106622</v>
+      </c>
+      <c r="AA55">
+        <v>-0.01115737760871837</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>2004</v>
@@ -3710,8 +4634,26 @@
       <c r="U56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="V56">
+        <v>1978.022532165853</v>
+      </c>
+      <c r="W56">
+        <v>2063.194396204088</v>
+      </c>
+      <c r="X56">
+        <v>-0.004787615067515629</v>
+      </c>
+      <c r="Y56">
+        <v>0.01718292637674075</v>
+      </c>
+      <c r="Z56">
+        <v>-0.02185975591551078</v>
+      </c>
+      <c r="AA56">
+        <v>-0.02098102949875789</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>2005</v>
@@ -3773,8 +4715,26 @@
       <c r="U57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="V57">
+        <v>2026.323030137753</v>
+      </c>
+      <c r="W57">
+        <v>2151.869947895163</v>
+      </c>
+      <c r="X57">
+        <v>0.0244185782449169</v>
+      </c>
+      <c r="Y57">
+        <v>0.04297973659400325</v>
+      </c>
+      <c r="Z57">
+        <v>-0.01224428206888364</v>
+      </c>
+      <c r="AA57">
+        <v>-0.01001421066373752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>2006</v>
@@ -3836,8 +4796,26 @@
       <c r="U58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="V58">
+        <v>2167.990003793868</v>
+      </c>
+      <c r="W58">
+        <v>2311.636746671902</v>
+      </c>
+      <c r="X58">
+        <v>0.06991332159240353</v>
+      </c>
+      <c r="Y58">
+        <v>0.0742455643906426</v>
+      </c>
+      <c r="Z58">
+        <v>-0.007423510729311344</v>
+      </c>
+      <c r="AA58">
+        <v>-0.003739029531577626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>2007</v>
@@ -3899,8 +4877,26 @@
       <c r="U59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="V59">
+        <v>2266.507623515855</v>
+      </c>
+      <c r="W59">
+        <v>2394.270699130573</v>
+      </c>
+      <c r="X59">
+        <v>0.04544191603724507</v>
+      </c>
+      <c r="Y59">
+        <v>0.03574694535274191</v>
+      </c>
+      <c r="Z59">
+        <v>-0.0004948972183034313</v>
+      </c>
+      <c r="AA59">
+        <v>0.0009218130568601831</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
         <v>2008</v>
@@ -3962,8 +4958,26 @@
       <c r="U60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="V60">
+        <v>2272.435309463676</v>
+      </c>
+      <c r="W60">
+        <v>2414.90156147125</v>
+      </c>
+      <c r="X60">
+        <v>0.002615339073347463</v>
+      </c>
+      <c r="Y60">
+        <v>0.008616762652681164</v>
+      </c>
+      <c r="Z60">
+        <v>0.0009555970936256971</v>
+      </c>
+      <c r="AA60">
+        <v>0.004059240521162679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>2009</v>
@@ -4025,8 +5039,26 @@
       <c r="U61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="V61">
+        <v>2394.160144979965</v>
+      </c>
+      <c r="W61">
+        <v>2493.180959626011</v>
+      </c>
+      <c r="X61">
+        <v>0.05356580889645519</v>
+      </c>
+      <c r="Y61">
+        <v>0.03241515074720906</v>
+      </c>
+      <c r="Z61">
+        <v>0.008090533175261108</v>
+      </c>
+      <c r="AA61">
+        <v>0.009022653027179743</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <v>2010</v>
@@ -4088,8 +5120,26 @@
       <c r="U62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="V62">
+        <v>2535.916358811369</v>
+      </c>
+      <c r="W62">
+        <v>2680.514049971209</v>
+      </c>
+      <c r="X62">
+        <v>0.05920916114514594</v>
+      </c>
+      <c r="Y62">
+        <v>0.07513818426292619</v>
+      </c>
+      <c r="Z62">
+        <v>0.01893068444829107</v>
+      </c>
+      <c r="AA62">
+        <v>0.0203046152702556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <v>2011</v>
@@ -4151,8 +5201,26 @@
       <c r="U63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="V63">
+        <v>2626.38623900553</v>
+      </c>
+      <c r="W63">
+        <v>2832.384777132778</v>
+      </c>
+      <c r="X63">
+        <v>0.03567541960909379</v>
+      </c>
+      <c r="Y63">
+        <v>0.05665731435475958</v>
+      </c>
+      <c r="Z63">
+        <v>0.02447574027375422</v>
+      </c>
+      <c r="AA63">
+        <v>0.02460096520606619</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>2012</v>
@@ -4214,8 +5282,26 @@
       <c r="U64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="V64">
+        <v>2779.676663893513</v>
+      </c>
+      <c r="W64">
+        <v>2997.786029207653</v>
+      </c>
+      <c r="X64">
+        <v>0.05836553002426098</v>
+      </c>
+      <c r="Y64">
+        <v>0.05839646273000745</v>
+      </c>
+      <c r="Z64">
+        <v>0.03269463787676869</v>
+      </c>
+      <c r="AA64">
+        <v>0.03555759008096905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
         <v>2013</v>
@@ -4277,8 +5363,26 @@
       <c r="U65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="V65">
+        <v>2920.010531089055</v>
+      </c>
+      <c r="W65">
+        <v>3132.300117061212</v>
+      </c>
+      <c r="X65">
+        <v>0.0504856802297917</v>
+      </c>
+      <c r="Y65">
+        <v>0.04487114375174849</v>
+      </c>
+      <c r="Z65">
+        <v>0.03949031397851447</v>
+      </c>
+      <c r="AA65">
+        <v>0.04462501912134602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
         <v>2014</v>
@@ -4340,8 +5444,26 @@
       <c r="U66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21">
+      <c r="V66">
+        <v>3093.997749032452</v>
+      </c>
+      <c r="W66">
+        <v>3370.466998876823</v>
+      </c>
+      <c r="X66">
+        <v>0.05958444878570562</v>
+      </c>
+      <c r="Y66">
+        <v>0.07603577975122748</v>
+      </c>
+      <c r="Z66">
+        <v>0.04592752036383659</v>
+      </c>
+      <c r="AA66">
+        <v>0.0505103044587947</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
         <v>2015</v>
@@ -4403,8 +5525,26 @@
       <c r="U67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21">
+      <c r="V67">
+        <v>3439.494075542309</v>
+      </c>
+      <c r="W67">
+        <v>3627.500746519464</v>
+      </c>
+      <c r="X67">
+        <v>0.1116666379663334</v>
+      </c>
+      <c r="Y67">
+        <v>0.07626057389919405</v>
+      </c>
+      <c r="Z67">
+        <v>0.05465232633597823</v>
+      </c>
+      <c r="AA67">
+        <v>0.05383838818931378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
         <v>2016</v>
@@ -4466,8 +5606,26 @@
       <c r="U68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="V68">
+        <v>3673.018210156677</v>
+      </c>
+      <c r="W68">
+        <v>3813.894163949224</v>
+      </c>
+      <c r="X68">
+        <v>0.06789490822935869</v>
+      </c>
+      <c r="Y68">
+        <v>0.05138342634625286</v>
+      </c>
+      <c r="Z68">
+        <v>0.05445048499967375</v>
+      </c>
+      <c r="AA68">
+        <v>0.0515521743848748</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
         <v>2017</v>
@@ -4529,8 +5687,26 @@
       <c r="U69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21">
+      <c r="V69">
+        <v>3993.5996191271</v>
+      </c>
+      <c r="W69">
+        <v>4141.360352257281</v>
+      </c>
+      <c r="X69">
+        <v>0.08728010334496758</v>
+      </c>
+      <c r="Y69">
+        <v>0.08586137271543262</v>
+      </c>
+      <c r="Z69">
+        <v>0.058634303730446</v>
+      </c>
+      <c r="AA69">
+        <v>0.05656361712114387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
         <v>2018</v>
@@ -4592,8 +5768,26 @@
       <c r="U70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="V70">
+        <v>4121.555083813108</v>
+      </c>
+      <c r="W70">
+        <v>4224.112426595158</v>
+      </c>
+      <c r="X70">
+        <v>0.03204013343580377</v>
+      </c>
+      <c r="Y70">
+        <v>0.01998185796432124</v>
+      </c>
+      <c r="Z70">
+        <v>0.06157678316669164</v>
+      </c>
+      <c r="AA70">
+        <v>0.05770012665230788</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
         <v>2019</v>
@@ -4655,10 +5849,28 @@
       <c r="U71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:21">
+      <c r="V71">
+        <v>4232.702483326138</v>
+      </c>
+      <c r="W71">
+        <v>4334.060165123107</v>
+      </c>
+      <c r="X71">
+        <v>0.02696734539580665</v>
+      </c>
+      <c r="Y71">
+        <v>0.02602860137805872</v>
+      </c>
+      <c r="Z71">
+        <v>0.05891693681662678</v>
+      </c>
+      <c r="AA71">
+        <v>0.05706147171539285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B72" s="1">
         <v>1950</v>
@@ -4676,10 +5888,10 @@
         <v>2.290000677108765</v>
       </c>
       <c r="U72">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
         <v>1951</v>
@@ -4709,10 +5921,16 @@
         <v>0.01420026884029385</v>
       </c>
       <c r="U73">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>14</v>
+      </c>
+      <c r="V73">
+        <v>3203.858335289356</v>
+      </c>
+      <c r="W73">
+        <v>3100.455997076392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
         <v>1952</v>
@@ -4742,10 +5960,22 @@
         <v>0.0142002875986824</v>
       </c>
       <c r="U74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+        <v>12</v>
+      </c>
+      <c r="V74">
+        <v>3448.773228945387</v>
+      </c>
+      <c r="W74">
+        <v>3361.071086586978</v>
+      </c>
+      <c r="X74">
+        <v>0.07644373378135411</v>
+      </c>
+      <c r="Y74">
+        <v>0.08405701927598259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
         <v>1953</v>
@@ -4775,10 +6005,22 @@
         <v>0.01420025462357999</v>
       </c>
       <c r="U75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+        <v>12</v>
+      </c>
+      <c r="V75">
+        <v>3563.902087468017</v>
+      </c>
+      <c r="W75">
+        <v>3458.742135661753</v>
+      </c>
+      <c r="X75">
+        <v>0.03338255399234685</v>
+      </c>
+      <c r="Y75">
+        <v>0.02905950114073764</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
         <v>1954</v>
@@ -4814,10 +6056,22 @@
         <v>0.014200233613334</v>
       </c>
       <c r="U76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V76">
+        <v>3735.812574044378</v>
+      </c>
+      <c r="W76">
+        <v>3592.181185652517</v>
+      </c>
+      <c r="X76">
+        <v>0.04823659078089176</v>
+      </c>
+      <c r="Y76">
+        <v>0.03858022505202861</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
         <v>1955</v>
@@ -4859,10 +6113,22 @@
         <v>-0.01507861542431587</v>
       </c>
       <c r="U77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V77">
+        <v>3998.231031000078</v>
+      </c>
+      <c r="W77">
+        <v>3830.331405175276</v>
+      </c>
+      <c r="X77">
+        <v>0.07024401030686793</v>
+      </c>
+      <c r="Y77">
+        <v>0.06629682836543746</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
         <v>1956</v>
@@ -4904,10 +6170,22 @@
         <v>0.01638775373598297</v>
       </c>
       <c r="U78">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V78">
+        <v>4216.28863788432</v>
+      </c>
+      <c r="W78">
+        <v>4043.197763294086</v>
+      </c>
+      <c r="X78">
+        <v>0.05453852095928025</v>
+      </c>
+      <c r="Y78">
+        <v>0.05557387484310095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
         <v>1957</v>
@@ -4949,10 +6227,22 @@
         <v>0.01497087825403751</v>
       </c>
       <c r="U79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V79">
+        <v>4449.398490282264</v>
+      </c>
+      <c r="W79">
+        <v>4282.071080027525</v>
+      </c>
+      <c r="X79">
+        <v>0.05528792557117605</v>
+      </c>
+      <c r="Y79">
+        <v>0.05908029503331131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
         <v>1958</v>
@@ -4994,10 +6284,22 @@
         <v>0.004694280957406489</v>
       </c>
       <c r="U80">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V80">
+        <v>4803.898147463618</v>
+      </c>
+      <c r="W80">
+        <v>4553.306158618677</v>
+      </c>
+      <c r="X80">
+        <v>0.07967361385041162</v>
+      </c>
+      <c r="Y80">
+        <v>0.0633420308822638</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
         <v>1959</v>
@@ -5039,10 +6341,22 @@
         <v>0.03637008222497202</v>
       </c>
       <c r="U81">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V81">
+        <v>5233.909753482118</v>
+      </c>
+      <c r="W81">
+        <v>4937.41819645341</v>
+      </c>
+      <c r="X81">
+        <v>0.08951305644261826</v>
+      </c>
+      <c r="Y81">
+        <v>0.08435893051199091</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
         <v>1960</v>
@@ -5096,10 +6410,22 @@
         <v>0.01212096625485843</v>
       </c>
       <c r="U82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+        <v>4</v>
+      </c>
+      <c r="V82">
+        <v>5870.698614790094</v>
+      </c>
+      <c r="W82">
+        <v>5520.272775051474</v>
+      </c>
+      <c r="X82">
+        <v>0.1216659994728265</v>
+      </c>
+      <c r="Y82">
+        <v>0.1180484527352238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
         <v>1961</v>
@@ -5155,8 +6481,26 @@
       <c r="U83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:21">
+      <c r="V83">
+        <v>6456.000712154447</v>
+      </c>
+      <c r="W83">
+        <v>6072.646783309738</v>
+      </c>
+      <c r="X83">
+        <v>0.09969888351784854</v>
+      </c>
+      <c r="Y83">
+        <v>0.100062810438405</v>
+      </c>
+      <c r="Z83">
+        <v>0.07286848886756216</v>
+      </c>
+      <c r="AA83">
+        <v>0.06984599682784817</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
         <v>1962</v>
@@ -5212,8 +6556,26 @@
       <c r="U84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:21">
+      <c r="V84">
+        <v>7024.701682325117</v>
+      </c>
+      <c r="W84">
+        <v>6595.2584335753</v>
+      </c>
+      <c r="X84">
+        <v>0.08808874030946129</v>
+      </c>
+      <c r="Y84">
+        <v>0.08605994534408379</v>
+      </c>
+      <c r="Z84">
+        <v>0.07403298952037288</v>
+      </c>
+      <c r="AA84">
+        <v>0.07004628943465829</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
         <v>1963</v>
@@ -5269,8 +6631,26 @@
       <c r="U85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:21">
+      <c r="V85">
+        <v>7549.789385618302</v>
+      </c>
+      <c r="W85">
+        <v>7075.029732846569</v>
+      </c>
+      <c r="X85">
+        <v>0.07474875475699706</v>
+      </c>
+      <c r="Y85">
+        <v>0.0727448824186839</v>
+      </c>
+      <c r="Z85">
+        <v>0.0781696095968379</v>
+      </c>
+      <c r="AA85">
+        <v>0.07441482756245292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" s="1"/>
       <c r="B86" s="1">
         <v>1964</v>
@@ -5332,8 +6712,26 @@
       <c r="U86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:21">
+      <c r="V86">
+        <v>8338.316466862345</v>
+      </c>
+      <c r="W86">
+        <v>7792.100702794951</v>
+      </c>
+      <c r="X86">
+        <v>0.1044435865649602</v>
+      </c>
+      <c r="Y86">
+        <v>0.1013523613362789</v>
+      </c>
+      <c r="Z86">
+        <v>0.08379030917524474</v>
+      </c>
+      <c r="AA86">
+        <v>0.08069204119087794</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
         <v>1965</v>
@@ -5395,8 +6793,26 @@
       <c r="U87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:21">
+      <c r="V87">
+        <v>8794.56974416975</v>
+      </c>
+      <c r="W87">
+        <v>8190.122308849428</v>
+      </c>
+      <c r="X87">
+        <v>0.05471767342012272</v>
+      </c>
+      <c r="Y87">
+        <v>0.05108014144526016</v>
+      </c>
+      <c r="Z87">
+        <v>0.08223767548657021</v>
+      </c>
+      <c r="AA87">
+        <v>0.07917037249886023</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" s="1"/>
       <c r="B88" s="1">
         <v>1966</v>
@@ -5458,8 +6874,26 @@
       <c r="U88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:21">
+      <c r="V88">
+        <v>9584.535354070082</v>
+      </c>
+      <c r="W88">
+        <v>8933.17752697439</v>
+      </c>
+      <c r="X88">
+        <v>0.08982424756185818</v>
+      </c>
+      <c r="Y88">
+        <v>0.09072577796818626</v>
+      </c>
+      <c r="Z88">
+        <v>0.08576624814682801</v>
+      </c>
+      <c r="AA88">
+        <v>0.08268556281136875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
         <v>1967</v>
@@ -5521,8 +6955,26 @@
       <c r="U89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:21">
+      <c r="V89">
+        <v>10498.54516439246</v>
+      </c>
+      <c r="W89">
+        <v>9768.245139095416</v>
+      </c>
+      <c r="X89">
+        <v>0.09536297551808244</v>
+      </c>
+      <c r="Y89">
+        <v>0.0934793481490183</v>
+      </c>
+      <c r="Z89">
+        <v>0.08977375314151866</v>
+      </c>
+      <c r="AA89">
+        <v>0.08612546812293945</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" s="1"/>
       <c r="B90" s="1">
         <v>1968</v>
@@ -5584,8 +7036,26 @@
       <c r="U90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:21">
+      <c r="V90">
+        <v>11703.27688924176</v>
+      </c>
+      <c r="W90">
+        <v>10886.52107804292</v>
+      </c>
+      <c r="X90">
+        <v>0.1147522543347569</v>
+      </c>
+      <c r="Y90">
+        <v>0.1144807407086691</v>
+      </c>
+      <c r="Z90">
+        <v>0.09328161718995318</v>
+      </c>
+      <c r="AA90">
+        <v>0.09123933910557999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" s="1"/>
       <c r="B91" s="1">
         <v>1969</v>
@@ -5647,8 +7117,26 @@
       <c r="U91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:21">
+      <c r="V91">
+        <v>12975.69970388578</v>
+      </c>
+      <c r="W91">
+        <v>12076.78658713102</v>
+      </c>
+      <c r="X91">
+        <v>0.1087236358402919</v>
+      </c>
+      <c r="Y91">
+        <v>0.1093338726444718</v>
+      </c>
+      <c r="Z91">
+        <v>0.09520267512972055</v>
+      </c>
+      <c r="AA91">
+        <v>0.09373683331882807</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" s="1"/>
       <c r="B92" s="1">
         <v>1970</v>
@@ -5710,8 +7198,26 @@
       <c r="U92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:21">
+      <c r="V92">
+        <v>14193.83394658126</v>
+      </c>
+      <c r="W92">
+        <v>13171.41014131962</v>
+      </c>
+      <c r="X92">
+        <v>0.09387811605494234</v>
+      </c>
+      <c r="Y92">
+        <v>0.09063864350762235</v>
+      </c>
+      <c r="Z92">
+        <v>0.09242388678793213</v>
+      </c>
+      <c r="AA92">
+        <v>0.09099585239606793</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
         <v>1971</v>
@@ -5773,8 +7279,26 @@
       <c r="U93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:21">
+      <c r="V93">
+        <v>14961.89203714034</v>
+      </c>
+      <c r="W93">
+        <v>13807.77510743882</v>
+      </c>
+      <c r="X93">
+        <v>0.05411209497375306</v>
+      </c>
+      <c r="Y93">
+        <v>0.04831411058432388</v>
+      </c>
+      <c r="Z93">
+        <v>0.08786520793352258</v>
+      </c>
+      <c r="AA93">
+        <v>0.08582098241065983</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" s="1"/>
       <c r="B94" s="1">
         <v>1972</v>
@@ -5836,8 +7360,26 @@
       <c r="U94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:21">
+      <c r="V94">
+        <v>16114.93996035954</v>
+      </c>
+      <c r="W94">
+        <v>14848.70940252879</v>
+      </c>
+      <c r="X94">
+        <v>0.07706564920779746</v>
+      </c>
+      <c r="Y94">
+        <v>0.07538754701538958</v>
+      </c>
+      <c r="Z94">
+        <v>0.08676289882335619</v>
+      </c>
+      <c r="AA94">
+        <v>0.08475374257779041</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
         <v>1973</v>
@@ -5899,8 +7441,26 @@
       <c r="U95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="V95">
+        <v>17120.55028659278</v>
+      </c>
+      <c r="W95">
+        <v>15811.19830423099</v>
+      </c>
+      <c r="X95">
+        <v>0.0624023625720545</v>
+      </c>
+      <c r="Y95">
+        <v>0.06481970086493079</v>
+      </c>
+      <c r="Z95">
+        <v>0.08552825960486195</v>
+      </c>
+      <c r="AA95">
+        <v>0.08396122442241509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" s="1"/>
       <c r="B96" s="1">
         <v>1974</v>
@@ -5962,8 +7522,26 @@
       <c r="U96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="V96">
+        <v>16400.66332682398</v>
+      </c>
+      <c r="W96">
+        <v>15488.98062268937</v>
+      </c>
+      <c r="X96">
+        <v>-0.0420481204002275</v>
+      </c>
+      <c r="Y96">
+        <v>-0.02037908040501893</v>
+      </c>
+      <c r="Z96">
+        <v>0.07087908890834317</v>
+      </c>
+      <c r="AA96">
+        <v>0.0717880802482853</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
       <c r="A97" s="1"/>
       <c r="B97" s="1">
         <v>1975</v>
@@ -6025,8 +7603,26 @@
       <c r="U97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="V97">
+        <v>16763.63310746329</v>
+      </c>
+      <c r="W97">
+        <v>15994.42322100485</v>
+      </c>
+      <c r="X97">
+        <v>0.0221314085538026</v>
+      </c>
+      <c r="Y97">
+        <v>0.03263239916351066</v>
+      </c>
+      <c r="Z97">
+        <v>0.06762046242171116</v>
+      </c>
+      <c r="AA97">
+        <v>0.06994330602011035</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
       <c r="A98" s="1"/>
       <c r="B98" s="1">
         <v>1976</v>
@@ -6088,8 +7684,26 @@
       <c r="U98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="V98">
+        <v>17603.64286419019</v>
+      </c>
+      <c r="W98">
+        <v>16858.33220231414</v>
+      </c>
+      <c r="X98">
+        <v>0.05010905162037493</v>
+      </c>
+      <c r="Y98">
+        <v>0.05401313754001149</v>
+      </c>
+      <c r="Z98">
+        <v>0.06364894282756282</v>
+      </c>
+      <c r="AA98">
+        <v>0.06627204197729288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
       <c r="A99" s="1"/>
       <c r="B99" s="1">
         <v>1977</v>
@@ -6151,8 +7765,26 @@
       <c r="U99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:21">
+      <c r="V99">
+        <v>18563.02355283299</v>
+      </c>
+      <c r="W99">
+        <v>17810.67939690036</v>
+      </c>
+      <c r="X99">
+        <v>0.05449898614987228</v>
+      </c>
+      <c r="Y99">
+        <v>0.0564911868598417</v>
+      </c>
+      <c r="Z99">
+        <v>0.05956254389074182</v>
+      </c>
+      <c r="AA99">
+        <v>0.06257322584837523</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
       <c r="A100" s="1"/>
       <c r="B100" s="1">
         <v>1978</v>
@@ -6214,8 +7846,26 @@
       <c r="U100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:21">
+      <c r="V100">
+        <v>19915.89896080246</v>
+      </c>
+      <c r="W100">
+        <v>18962.61744278164</v>
+      </c>
+      <c r="X100">
+        <v>0.07288012128622252</v>
+      </c>
+      <c r="Y100">
+        <v>0.06467681665651451</v>
+      </c>
+      <c r="Z100">
+        <v>0.05537533058588838</v>
+      </c>
+      <c r="AA100">
+        <v>0.05759283344315976</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
         <v>1979</v>
@@ -6277,8 +7927,26 @@
       <c r="U101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="V101">
+        <v>20804.1824689331</v>
+      </c>
+      <c r="W101">
+        <v>20043.08822917339</v>
+      </c>
+      <c r="X101">
+        <v>0.04460172799023122</v>
+      </c>
+      <c r="Y101">
+        <v>0.05697898982838198</v>
+      </c>
+      <c r="Z101">
+        <v>0.04896313980088231</v>
+      </c>
+      <c r="AA101">
+        <v>0.05235734516155079</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
       <c r="A102" s="1"/>
       <c r="B102" s="1">
         <v>1980</v>
@@ -6340,8 +8008,26 @@
       <c r="U102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:21">
+      <c r="V102">
+        <v>21171.76758923168</v>
+      </c>
+      <c r="W102">
+        <v>21021.59947898539</v>
+      </c>
+      <c r="X102">
+        <v>0.01766880870457118</v>
+      </c>
+      <c r="Y102">
+        <v>0.04882038329740723</v>
+      </c>
+      <c r="Z102">
+        <v>0.0413422090658452</v>
+      </c>
+      <c r="AA102">
+        <v>0.04817551914052927</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
       <c r="A103" s="1"/>
       <c r="B103" s="1">
         <v>1981</v>
@@ -6403,8 +8089,26 @@
       <c r="U103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:21">
+      <c r="V103">
+        <v>20983.74393359733</v>
+      </c>
+      <c r="W103">
+        <v>20839.87455454199</v>
+      </c>
+      <c r="X103">
+        <v>-0.00888086716623415</v>
+      </c>
+      <c r="Y103">
+        <v>-0.008644676377982888</v>
+      </c>
+      <c r="Z103">
+        <v>0.03504291285184647</v>
+      </c>
+      <c r="AA103">
+        <v>0.04247964044429859</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
       <c r="A104" s="1"/>
       <c r="B104" s="1">
         <v>1982</v>
@@ -6466,8 +8170,26 @@
       <c r="U104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:21">
+      <c r="V104">
+        <v>20466.06886126813</v>
+      </c>
+      <c r="W104">
+        <v>20397.55369788549</v>
+      </c>
+      <c r="X104">
+        <v>-0.02467029115335035</v>
+      </c>
+      <c r="Y104">
+        <v>-0.02122473700591901</v>
+      </c>
+      <c r="Z104">
+        <v>0.0248693188157317</v>
+      </c>
+      <c r="AA104">
+        <v>0.03281841204216773</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
       <c r="A105" s="1"/>
       <c r="B105" s="1">
         <v>1983</v>
@@ -6529,8 +8251,26 @@
       <c r="U105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:21">
+      <c r="V105">
+        <v>19924.14839649597</v>
+      </c>
+      <c r="W105">
+        <v>19929.33420564733</v>
+      </c>
+      <c r="X105">
+        <v>-0.02647897202172225</v>
+      </c>
+      <c r="Y105">
+        <v>-0.02295468854614179</v>
+      </c>
+      <c r="Z105">
+        <v>0.01598118535635402</v>
+      </c>
+      <c r="AA105">
+        <v>0.02404097310106048</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
       <c r="A106" s="1"/>
       <c r="B106" s="1">
         <v>1984</v>
@@ -6592,8 +8332,26 @@
       <c r="U106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:21">
+      <c r="V106">
+        <v>19830.67657327426</v>
+      </c>
+      <c r="W106">
+        <v>19877.9767627424</v>
+      </c>
+      <c r="X106">
+        <v>-0.004691383609557514</v>
+      </c>
+      <c r="Y106">
+        <v>-0.00257697735282962</v>
+      </c>
+      <c r="Z106">
+        <v>0.01971685903542101</v>
+      </c>
+      <c r="AA106">
+        <v>0.0258211834062794</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
       <c r="A107" s="1"/>
       <c r="B107" s="1">
         <v>1985</v>
@@ -6655,8 +8413,26 @@
       <c r="U107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:21">
+      <c r="V107">
+        <v>20161.07598176228</v>
+      </c>
+      <c r="W107">
+        <v>20370.36844500733</v>
+      </c>
+      <c r="X107">
+        <v>0.01666102552110096</v>
+      </c>
+      <c r="Y107">
+        <v>0.02477071425034719</v>
+      </c>
+      <c r="Z107">
+        <v>0.01916982073215085</v>
+      </c>
+      <c r="AA107">
+        <v>0.02503501491496305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
       <c r="A108" s="1"/>
       <c r="B108" s="1">
         <v>1986</v>
@@ -6718,8 +8494,26 @@
       <c r="U108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:21">
+      <c r="V108">
+        <v>21421.29480678932</v>
+      </c>
+      <c r="W108">
+        <v>22058.65967957824</v>
+      </c>
+      <c r="X108">
+        <v>0.06250751825780705</v>
+      </c>
+      <c r="Y108">
+        <v>0.08287975934891328</v>
+      </c>
+      <c r="Z108">
+        <v>0.02040966739589406</v>
+      </c>
+      <c r="AA108">
+        <v>0.02792167709585324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
       <c r="A109" s="1"/>
       <c r="B109" s="1">
         <v>1987</v>
@@ -6781,8 +8575,26 @@
       <c r="U109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:21">
+      <c r="V109">
+        <v>22683.8607448293</v>
+      </c>
+      <c r="W109">
+        <v>23469.81041419146</v>
+      </c>
+      <c r="X109">
+        <v>0.05893975828388395</v>
+      </c>
+      <c r="Y109">
+        <v>0.06397264181557041</v>
+      </c>
+      <c r="Z109">
+        <v>0.02085374460929523</v>
+      </c>
+      <c r="AA109">
+        <v>0.02866982259142611</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
       <c r="A110" s="1"/>
       <c r="B110" s="1">
         <v>1988</v>
@@ -6844,8 +8656,26 @@
       <c r="U110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:21">
+      <c r="V110">
+        <v>24846.08488754331</v>
+      </c>
+      <c r="W110">
+        <v>25700.83570923237</v>
+      </c>
+      <c r="X110">
+        <v>0.09531993548350776</v>
+      </c>
+      <c r="Y110">
+        <v>0.09505936586909441</v>
+      </c>
+      <c r="Z110">
+        <v>0.02309772602902375</v>
+      </c>
+      <c r="AA110">
+        <v>0.0317080775126841</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
       <c r="A111" s="1"/>
       <c r="B111" s="1">
         <v>1989</v>
@@ -6907,8 +8737,26 @@
       <c r="U111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:21">
+      <c r="V111">
+        <v>26704.87018168545</v>
+      </c>
+      <c r="W111">
+        <v>27439.87117416406</v>
+      </c>
+      <c r="X111">
+        <v>0.07481199965931255</v>
+      </c>
+      <c r="Y111">
+        <v>0.0676645493012893</v>
+      </c>
+      <c r="Z111">
+        <v>0.02611875319593189</v>
+      </c>
+      <c r="AA111">
+        <v>0.03277663345997483</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
       <c r="A112" s="1"/>
       <c r="B112" s="1">
         <v>1990</v>
@@ -6970,8 +8818,26 @@
       <c r="U112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:21">
+      <c r="V112">
+        <v>28636.59223082784</v>
+      </c>
+      <c r="W112">
+        <v>29491.27153862548</v>
+      </c>
+      <c r="X112">
+        <v>0.0723359460652683</v>
+      </c>
+      <c r="Y112">
+        <v>0.07475983948470249</v>
+      </c>
+      <c r="Z112">
+        <v>0.0315854669320016</v>
+      </c>
+      <c r="AA112">
+        <v>0.03537057907870435</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
       <c r="A113" s="1"/>
       <c r="B113" s="1">
         <v>1991</v>
@@ -7033,8 +8899,26 @@
       <c r="U113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:21">
+      <c r="V113">
+        <v>30274.83220786531</v>
+      </c>
+      <c r="W113">
+        <v>31216.16407470079</v>
+      </c>
+      <c r="X113">
+        <v>0.05720792347889327</v>
+      </c>
+      <c r="Y113">
+        <v>0.05848823892914121</v>
+      </c>
+      <c r="Z113">
+        <v>0.03819434599651434</v>
+      </c>
+      <c r="AA113">
+        <v>0.04208387060941677</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
       <c r="A114" s="1"/>
       <c r="B114" s="1">
         <v>1992</v>
@@ -7096,8 +8980,26 @@
       <c r="U114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:21">
+      <c r="V114">
+        <v>31204.26730627508</v>
+      </c>
+      <c r="W114">
+        <v>32246.63493342484</v>
+      </c>
+      <c r="X114">
+        <v>0.030699925668566</v>
+      </c>
+      <c r="Y114">
+        <v>0.03301080992072287</v>
+      </c>
+      <c r="Z114">
+        <v>0.04373136767870597</v>
+      </c>
+      <c r="AA114">
+        <v>0.04750742530208096</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
       <c r="A115" s="1"/>
       <c r="B115" s="1">
         <v>1993</v>
@@ -7159,8 +9061,26 @@
       <c r="U115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:21">
+      <c r="V115">
+        <v>31931.71295434691</v>
+      </c>
+      <c r="W115">
+        <v>33108.50002613474</v>
+      </c>
+      <c r="X115">
+        <v>0.02331237714803019</v>
+      </c>
+      <c r="Y115">
+        <v>0.02672728780814724</v>
+      </c>
+      <c r="Z115">
+        <v>0.04871050259568122</v>
+      </c>
+      <c r="AA115">
+        <v>0.05247562293750986</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
       <c r="A116" s="1"/>
       <c r="B116" s="1">
         <v>1994</v>
@@ -7222,8 +9142,26 @@
       <c r="U116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:21">
+      <c r="V116">
+        <v>32980.81009718672</v>
+      </c>
+      <c r="W116">
+        <v>34069.46707382272</v>
+      </c>
+      <c r="X116">
+        <v>0.03285439601501206</v>
+      </c>
+      <c r="Y116">
+        <v>0.0290247835730833</v>
+      </c>
+      <c r="Z116">
+        <v>0.05246508055813818</v>
+      </c>
+      <c r="AA116">
+        <v>0.05563579903010115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
       <c r="A117" s="1"/>
       <c r="B117" s="1">
         <v>1995</v>
@@ -7285,8 +9223,26 @@
       <c r="U117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:21">
+      <c r="V117">
+        <v>34788.82305254001</v>
+      </c>
+      <c r="W117">
+        <v>35872.41376610334</v>
+      </c>
+      <c r="X117">
+        <v>0.05482014996070462</v>
+      </c>
+      <c r="Y117">
+        <v>0.05291972100338227</v>
+      </c>
+      <c r="Z117">
+        <v>0.05628099300209854</v>
+      </c>
+      <c r="AA117">
+        <v>0.05845069970540466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27">
       <c r="A118" s="1"/>
       <c r="B118" s="1">
         <v>1996</v>
@@ -7348,8 +9304,26 @@
       <c r="U118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:21">
+      <c r="V118">
+        <v>36801.44176078968</v>
+      </c>
+      <c r="W118">
+        <v>37642.41903271624</v>
+      </c>
+      <c r="X118">
+        <v>0.05785245178343919</v>
+      </c>
+      <c r="Y118">
+        <v>0.04934168294761986</v>
+      </c>
+      <c r="Z118">
+        <v>0.05581548635466176</v>
+      </c>
+      <c r="AA118">
+        <v>0.05509689206527531</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
       <c r="A119" s="1"/>
       <c r="B119" s="1">
         <v>1997</v>
@@ -7411,8 +9385,26 @@
       <c r="U119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:21">
+      <c r="V119">
+        <v>36917.45783265661</v>
+      </c>
+      <c r="W119">
+        <v>37720.03375064612</v>
+      </c>
+      <c r="X119">
+        <v>0.003152487139526652</v>
+      </c>
+      <c r="Y119">
+        <v>0.002061895062121837</v>
+      </c>
+      <c r="Z119">
+        <v>0.05023675924022603</v>
+      </c>
+      <c r="AA119">
+        <v>0.04890581738993045</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
       <c r="A120" s="1"/>
       <c r="B120" s="1">
         <v>1998</v>
@@ -7474,8 +9466,26 @@
       <c r="U120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:21">
+      <c r="V120">
+        <v>36472.69396929555</v>
+      </c>
+      <c r="W120">
+        <v>37194.36253318137</v>
+      </c>
+      <c r="X120">
+        <v>-0.01204752140239816</v>
+      </c>
+      <c r="Y120">
+        <v>-0.01393612797220106</v>
+      </c>
+      <c r="Z120">
+        <v>0.03950001355163543</v>
+      </c>
+      <c r="AA120">
+        <v>0.03800626800580091</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
       <c r="A121" s="1"/>
       <c r="B121" s="1">
         <v>1999</v>
@@ -7537,8 +9547,26 @@
       <c r="U121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:21">
+      <c r="V121">
+        <v>36141.60430582637</v>
+      </c>
+      <c r="W121">
+        <v>37126.91368518342</v>
+      </c>
+      <c r="X121">
+        <v>-0.009077740836690086</v>
+      </c>
+      <c r="Y121">
+        <v>-0.001813415888974675</v>
+      </c>
+      <c r="Z121">
+        <v>0.03111103950203517</v>
+      </c>
+      <c r="AA121">
+        <v>0.03105847148677451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
       <c r="A122" s="1"/>
       <c r="B122" s="1">
         <v>2000</v>
@@ -7600,8 +9628,26 @@
       <c r="U122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:21">
+      <c r="V122">
+        <v>36886.95095984664</v>
+      </c>
+      <c r="W122">
+        <v>37974.26560012416</v>
+      </c>
+      <c r="X122">
+        <v>0.02062295430256004</v>
+      </c>
+      <c r="Y122">
+        <v>0.02282311754017133</v>
+      </c>
+      <c r="Z122">
+        <v>0.02593974032576434</v>
+      </c>
+      <c r="AA122">
+        <v>0.02586479929232139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
       <c r="A123" s="1"/>
       <c r="B123" s="1">
         <v>2001</v>
@@ -7663,8 +9709,26 @@
       <c r="U123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:21">
+      <c r="V123">
+        <v>36943.98757681818</v>
+      </c>
+      <c r="W123">
+        <v>37524.40694107143</v>
+      </c>
+      <c r="X123">
+        <v>0.001546254582918197</v>
+      </c>
+      <c r="Y123">
+        <v>-0.01184640840167442</v>
+      </c>
+      <c r="Z123">
+        <v>0.02037357343616684</v>
+      </c>
+      <c r="AA123">
+        <v>0.01883133455923983</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
       <c r="A124" s="1"/>
       <c r="B124" s="1">
         <v>2002</v>
@@ -7726,8 +9790,26 @@
       <c r="U124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:21">
+      <c r="V124">
+        <v>36816.2482765766</v>
+      </c>
+      <c r="W124">
+        <v>37437.0189577279</v>
+      </c>
+      <c r="X124">
+        <v>-0.003457647877776445</v>
+      </c>
+      <c r="Y124">
+        <v>-0.002328830499060578</v>
+      </c>
+      <c r="Z124">
+        <v>0.01695781608153259</v>
+      </c>
+      <c r="AA124">
+        <v>0.01529737051726149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
       <c r="A125" s="1"/>
       <c r="B125" s="1">
         <v>2003</v>
@@ -7789,8 +9871,26 @@
       <c r="U125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:21">
+      <c r="V125">
+        <v>37314.83028346538</v>
+      </c>
+      <c r="W125">
+        <v>38001.13795056212</v>
+      </c>
+      <c r="X125">
+        <v>0.01354244471471566</v>
+      </c>
+      <c r="Y125">
+        <v>0.01506848057189569</v>
+      </c>
+      <c r="Z125">
+        <v>0.01598082283820114</v>
+      </c>
+      <c r="AA125">
+        <v>0.01413148979363633</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
       <c r="A126" s="1"/>
       <c r="B126" s="1">
         <v>2004</v>
@@ -7852,8 +9952,26 @@
       <c r="U126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:21">
+      <c r="V126">
+        <v>38041.13252353388</v>
+      </c>
+      <c r="W126">
+        <v>38946.04407433823</v>
+      </c>
+      <c r="X126">
+        <v>0.01946417106954746</v>
+      </c>
+      <c r="Y126">
+        <v>0.02486520601055147</v>
+      </c>
+      <c r="Z126">
+        <v>0.01464180034365468</v>
+      </c>
+      <c r="AA126">
+        <v>0.01371553203738315</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
       <c r="A127" s="1"/>
       <c r="B127" s="1">
         <v>2005</v>
@@ -7915,8 +10033,26 @@
       <c r="U127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:21">
+      <c r="V127">
+        <v>38502.90936267725</v>
+      </c>
+      <c r="W127">
+        <v>39861.48815177226</v>
+      </c>
+      <c r="X127">
+        <v>0.01213888253347074</v>
+      </c>
+      <c r="Y127">
+        <v>0.0235054444987193</v>
+      </c>
+      <c r="Z127">
+        <v>0.01037367360093129</v>
+      </c>
+      <c r="AA127">
+        <v>0.01077410438691685</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
       <c r="A128" s="1"/>
       <c r="B128" s="1">
         <v>2006</v>
@@ -7978,8 +10114,26 @@
       <c r="U128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:21">
+      <c r="V128">
+        <v>39012.0939996345</v>
+      </c>
+      <c r="W128">
+        <v>40286.26565772473</v>
+      </c>
+      <c r="X128">
+        <v>0.01322457563299937</v>
+      </c>
+      <c r="Y128">
+        <v>0.01065633837690995</v>
+      </c>
+      <c r="Z128">
+        <v>0.00591088598588731</v>
+      </c>
+      <c r="AA128">
+        <v>0.006905569929845863</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
       <c r="A129" s="1"/>
       <c r="B129" s="1">
         <v>2007</v>
@@ -8041,8 +10195,26 @@
       <c r="U129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:21">
+      <c r="V129">
+        <v>39781.11850507715</v>
+      </c>
+      <c r="W129">
+        <v>41043.87389852641</v>
+      </c>
+      <c r="X129">
+        <v>0.01971246417713065</v>
+      </c>
+      <c r="Y129">
+        <v>0.01880562093390288</v>
+      </c>
+      <c r="Z129">
+        <v>0.00756688368964771</v>
+      </c>
+      <c r="AA129">
+        <v>0.008579942517023967</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
       <c r="A130" s="1"/>
       <c r="B130" s="1">
         <v>2008</v>
@@ -8104,8 +10276,26 @@
       <c r="U130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:21">
+      <c r="V130">
+        <v>39052.31585924632</v>
+      </c>
+      <c r="W130">
+        <v>40317.43662666048</v>
+      </c>
+      <c r="X130">
+        <v>-0.01832031559740623</v>
+      </c>
+      <c r="Y130">
+        <v>-0.01769904258213818</v>
+      </c>
+      <c r="Z130">
+        <v>0.006939604270146903</v>
+      </c>
+      <c r="AA130">
+        <v>0.008203651056030254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
       <c r="A131" s="1"/>
       <c r="B131" s="1">
         <v>2009</v>
@@ -8167,8 +10357,26 @@
       <c r="U131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:21">
+      <c r="V131">
+        <v>37383.66358705848</v>
+      </c>
+      <c r="W131">
+        <v>38063.25686673252</v>
+      </c>
+      <c r="X131">
+        <v>-0.04272863812230877</v>
+      </c>
+      <c r="Y131">
+        <v>-0.05591079067852638</v>
+      </c>
+      <c r="Z131">
+        <v>0.003574514541585035</v>
+      </c>
+      <c r="AA131">
+        <v>0.002793913577075083</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
       <c r="A132" s="1"/>
       <c r="B132" s="1">
         <v>2010</v>
@@ -8230,8 +10438,26 @@
       <c r="U132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:21">
+      <c r="V132">
+        <v>38648.15600714492</v>
+      </c>
+      <c r="W132">
+        <v>39785.72969154906</v>
+      </c>
+      <c r="X132">
+        <v>0.03382473248352749</v>
+      </c>
+      <c r="Y132">
+        <v>0.04525290179049263</v>
+      </c>
+      <c r="Z132">
+        <v>0.004894692359681778</v>
+      </c>
+      <c r="AA132">
+        <v>0.005036892002107214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
       <c r="A133" s="1"/>
       <c r="B133" s="1">
         <v>2011</v>
@@ -8293,8 +10519,26 @@
       <c r="U133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:21">
+      <c r="V133">
+        <v>38190.48652392415</v>
+      </c>
+      <c r="W133">
+        <v>39149.10830985022</v>
+      </c>
+      <c r="X133">
+        <v>-0.01184194876299305</v>
+      </c>
+      <c r="Y133">
+        <v>-0.01600124935836137</v>
+      </c>
+      <c r="Z133">
+        <v>0.003555872025090654</v>
+      </c>
+      <c r="AA133">
+        <v>0.00462140790643852</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
       <c r="A134" s="1"/>
       <c r="B134" s="1">
         <v>2012</v>
@@ -8356,8 +10600,26 @@
       <c r="U134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:21">
+      <c r="V134">
+        <v>38664.36589586539</v>
+      </c>
+      <c r="W134">
+        <v>39212.82556633822</v>
+      </c>
+      <c r="X134">
+        <v>0.01240830937423078</v>
+      </c>
+      <c r="Y134">
+        <v>0.00162755319951873</v>
+      </c>
+      <c r="Z134">
+        <v>0.005142467750291377</v>
+      </c>
+      <c r="AA134">
+        <v>0.00501704627629645</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
       <c r="A135" s="1"/>
       <c r="B135" s="1">
         <v>2013</v>
@@ -8419,8 +10681,26 @@
       <c r="U135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:21">
+      <c r="V135">
+        <v>39271.75487122999</v>
+      </c>
+      <c r="W135">
+        <v>39632.74779207005</v>
+      </c>
+      <c r="X135">
+        <v>0.01570927031366501</v>
+      </c>
+      <c r="Y135">
+        <v>0.01070879794217896</v>
+      </c>
+      <c r="Z135">
+        <v>0.005359150310186312</v>
+      </c>
+      <c r="AA135">
+        <v>0.004581078013324776</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
       <c r="A136" s="1"/>
       <c r="B136" s="1">
         <v>2014</v>
@@ -8482,8 +10762,26 @@
       <c r="U136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:21">
+      <c r="V136">
+        <v>38680.91912979699</v>
+      </c>
+      <c r="W136">
+        <v>39127.37791793029</v>
+      </c>
+      <c r="X136">
+        <v>-0.01504480111393854</v>
+      </c>
+      <c r="Y136">
+        <v>-0.01275132061978498</v>
+      </c>
+      <c r="Z136">
+        <v>0.001908253091837712</v>
+      </c>
+      <c r="AA136">
+        <v>0.0008194253502911321</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
       <c r="A137" s="1"/>
       <c r="B137" s="1">
         <v>2015</v>
@@ -8545,8 +10843,26 @@
       <c r="U137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:21">
+      <c r="V137">
+        <v>39747.91368425158</v>
+      </c>
+      <c r="W137">
+        <v>40216.54236337799</v>
+      </c>
+      <c r="X137">
+        <v>0.02758451914945982</v>
+      </c>
+      <c r="Y137">
+        <v>0.02783637706907501</v>
+      </c>
+      <c r="Z137">
+        <v>0.00345281675343662</v>
+      </c>
+      <c r="AA137">
+        <v>0.001252518607326703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
       <c r="A138" s="1"/>
       <c r="B138" s="1">
         <v>2016</v>
@@ -8608,8 +10924,26 @@
       <c r="U138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:21">
+      <c r="V138">
+        <v>38931.7132639148</v>
+      </c>
+      <c r="W138">
+        <v>39398.67375064571</v>
+      </c>
+      <c r="X138">
+        <v>-0.02053442167607808</v>
+      </c>
+      <c r="Y138">
+        <v>-0.0203366218145359</v>
+      </c>
+      <c r="Z138">
+        <v>7.69170225288756E-05</v>
+      </c>
+      <c r="AA138">
+        <v>-0.001846777411817882</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
       <c r="A139" s="1"/>
       <c r="B139" s="1">
         <v>2017</v>
@@ -8671,8 +11005,26 @@
       <c r="U139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:21">
+      <c r="V139">
+        <v>39161.23699562625</v>
+      </c>
+      <c r="W139">
+        <v>39517.54050743773</v>
+      </c>
+      <c r="X139">
+        <v>0.005895546649990003</v>
+      </c>
+      <c r="Y139">
+        <v>0.003017024317730105</v>
+      </c>
+      <c r="Z139">
+        <v>-0.00130477473018519</v>
+      </c>
+      <c r="AA139">
+        <v>-0.003425637073435159</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
       <c r="A140" s="1"/>
       <c r="B140" s="1">
         <v>2018</v>
@@ -8734,8 +11086,26 @@
       <c r="U140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:21">
+      <c r="V140">
+        <v>39083.64311429422</v>
+      </c>
+      <c r="W140">
+        <v>39259.37269183855</v>
+      </c>
+      <c r="X140">
+        <v>-0.001981395055030836</v>
+      </c>
+      <c r="Y140">
+        <v>-0.006532993002198231</v>
+      </c>
+      <c r="Z140">
+        <v>0.0003291173240523495</v>
+      </c>
+      <c r="AA140">
+        <v>-0.002309032115441165</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
       <c r="A141" s="1"/>
       <c r="B141" s="1">
         <v>2019</v>
@@ -8797,10 +11167,28 @@
       <c r="U141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:21">
+      <c r="V141">
+        <v>39530.3565209002</v>
+      </c>
+      <c r="W141">
+        <v>39597.51731322366</v>
+      </c>
+      <c r="X141">
+        <v>0.01142967673969478</v>
+      </c>
+      <c r="Y141">
+        <v>0.008613092828541398</v>
+      </c>
+      <c r="Z141">
+        <v>0.005744948810252705</v>
+      </c>
+      <c r="AA141">
+        <v>0.004143356235265613</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
       <c r="A142" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B142" s="1">
         <v>1950</v>
@@ -8818,10 +11206,10 @@
         <v>2.583212852478027</v>
       </c>
       <c r="U142">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
       <c r="A143" s="1"/>
       <c r="B143" s="1">
         <v>1951</v>
@@ -8851,10 +11239,16 @@
         <v>0.004950077435813187</v>
       </c>
       <c r="U143">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21">
+        <v>14</v>
+      </c>
+      <c r="V143">
+        <v>16843.75614017511</v>
+      </c>
+      <c r="W143">
+        <v>17102.1198342823</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
       <c r="A144" s="1"/>
       <c r="B144" s="1">
         <v>1952</v>
@@ -8884,10 +11278,22 @@
         <v>0.004950032663162207</v>
       </c>
       <c r="U144">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21">
+        <v>12</v>
+      </c>
+      <c r="V144">
+        <v>17181.91754894562</v>
+      </c>
+      <c r="W144">
+        <v>17390.03747231292</v>
+      </c>
+      <c r="X144">
+        <v>0.02007636574385821</v>
+      </c>
+      <c r="Y144">
+        <v>0.0168352017656587</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
       <c r="A145" s="1"/>
       <c r="B145" s="1">
         <v>1953</v>
@@ -8917,10 +11323,22 @@
         <v>0.004950142616125607</v>
       </c>
       <c r="U145">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21">
+        <v>12</v>
+      </c>
+      <c r="V145">
+        <v>17720.52242137312</v>
+      </c>
+      <c r="W145">
+        <v>17880.08794331665</v>
+      </c>
+      <c r="X145">
+        <v>0.03134719223818804</v>
+      </c>
+      <c r="Y145">
+        <v>0.02817995486116415</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
       <c r="A146" s="1"/>
       <c r="B146" s="1">
         <v>1954</v>
@@ -8956,10 +11374,22 @@
         <v>0.004950130846452004</v>
       </c>
       <c r="U146">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V146">
+        <v>17341.37774198324</v>
+      </c>
+      <c r="W146">
+        <v>17532.5912394866</v>
+      </c>
+      <c r="X146">
+        <v>-0.02139579581088355</v>
+      </c>
+      <c r="Y146">
+        <v>-0.01943484310209686</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
       <c r="A147" s="1"/>
       <c r="B147" s="1">
         <v>1955</v>
@@ -9001,10 +11431,22 @@
         <v>0</v>
       </c>
       <c r="U147">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V147">
+        <v>18338.0361522061</v>
+      </c>
+      <c r="W147">
+        <v>18529.76443147607</v>
+      </c>
+      <c r="X147">
+        <v>0.05747285048811145</v>
+      </c>
+      <c r="Y147">
+        <v>0.05687540297772151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
       <c r="A148" s="1"/>
       <c r="B148" s="1">
         <v>1956</v>
@@ -9046,10 +11488,22 @@
         <v>0</v>
       </c>
       <c r="U148">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V148">
+        <v>18422.55829172845</v>
+      </c>
+      <c r="W148">
+        <v>18624.31458618356</v>
+      </c>
+      <c r="X148">
+        <v>0.004609116200928476</v>
+      </c>
+      <c r="Y148">
+        <v>0.00510260964499252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
       <c r="A149" s="1"/>
       <c r="B149" s="1">
         <v>1957</v>
@@ -9091,10 +11545,22 @@
         <v>0</v>
       </c>
       <c r="U149">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V149">
+        <v>18495.5552795254</v>
+      </c>
+      <c r="W149">
+        <v>18695.35932030576</v>
+      </c>
+      <c r="X149">
+        <v>0.003962369755655693</v>
+      </c>
+      <c r="Y149">
+        <v>0.003814622749924285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
       <c r="A150" s="1"/>
       <c r="B150" s="1">
         <v>1958</v>
@@ -9136,10 +11602,22 @@
         <v>0</v>
       </c>
       <c r="U150">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V150">
+        <v>18040.48135467197</v>
+      </c>
+      <c r="W150">
+        <v>18174.59792061901</v>
+      </c>
+      <c r="X150">
+        <v>-0.02460450189117585</v>
+      </c>
+      <c r="Y150">
+        <v>-0.02785511584798116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
       <c r="A151" s="1"/>
       <c r="B151" s="1">
         <v>1959</v>
@@ -9181,10 +11659,22 @@
         <v>0</v>
       </c>
       <c r="U151">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21">
+        <v>8</v>
+      </c>
+      <c r="V151">
+        <v>19028.87628004167</v>
+      </c>
+      <c r="W151">
+        <v>19173.28667355668</v>
+      </c>
+      <c r="X151">
+        <v>0.05478761380797266</v>
+      </c>
+      <c r="Y151">
+        <v>0.05494970272792998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
       <c r="A152" s="1"/>
       <c r="B152" s="1">
         <v>1960</v>
@@ -9238,10 +11728,22 @@
         <v>0.005219370986815791</v>
       </c>
       <c r="U152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21">
+        <v>4</v>
+      </c>
+      <c r="V152">
+        <v>19202.70573065347</v>
+      </c>
+      <c r="W152">
+        <v>19384.33847217011</v>
+      </c>
+      <c r="X152">
+        <v>0.009135034988594011</v>
+      </c>
+      <c r="Y152">
+        <v>0.01100759625654096</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
       <c r="A153" s="1"/>
       <c r="B153" s="1">
         <v>1961</v>
@@ -9297,8 +11799,26 @@
       <c r="U153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:21">
+      <c r="V153">
+        <v>19386.91343467511</v>
+      </c>
+      <c r="W153">
+        <v>19568.23471497745</v>
+      </c>
+      <c r="X153">
+        <v>0.009592799400533772</v>
+      </c>
+      <c r="Y153">
+        <v>0.009486846459649079</v>
+      </c>
+      <c r="Z153">
+        <v>0.01449830449217821</v>
+      </c>
+      <c r="AA153">
+        <v>0.01389619784935031</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27">
       <c r="A154" s="1"/>
       <c r="B154" s="1">
         <v>1962</v>
@@ -9354,8 +11874,26 @@
       <c r="U154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:21">
+      <c r="V154">
+        <v>20238.83391742504</v>
+      </c>
+      <c r="W154">
+        <v>20404.13521270275</v>
+      </c>
+      <c r="X154">
+        <v>0.04394306941228696</v>
+      </c>
+      <c r="Y154">
+        <v>0.04271721542084242</v>
+      </c>
+      <c r="Z154">
+        <v>0.01688497485902109</v>
+      </c>
+      <c r="AA154">
+        <v>0.01648439921486868</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27">
       <c r="A155" s="1"/>
       <c r="B155" s="1">
         <v>1963</v>
@@ -9411,8 +11949,26 @@
       <c r="U155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:21">
+      <c r="V155">
+        <v>20793.11813153236</v>
+      </c>
+      <c r="W155">
+        <v>20987.28222008676</v>
+      </c>
+      <c r="X155">
+        <v>0.02738716155134282</v>
+      </c>
+      <c r="Y155">
+        <v>0.02857984429651139</v>
+      </c>
+      <c r="Z155">
+        <v>0.01648897179033657</v>
+      </c>
+      <c r="AA155">
+        <v>0.01652438815840341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27">
       <c r="A156" s="1"/>
       <c r="B156" s="1">
         <v>1964</v>
@@ -9474,8 +12030,26 @@
       <c r="U156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:21">
+      <c r="V156">
+        <v>21699.69388779027</v>
+      </c>
+      <c r="W156">
+        <v>21931.17737621072</v>
+      </c>
+      <c r="X156">
+        <v>0.04359979828533327</v>
+      </c>
+      <c r="Y156">
+        <v>0.04497462540531128</v>
+      </c>
+      <c r="Z156">
+        <v>0.02298853119995825</v>
+      </c>
+      <c r="AA156">
+        <v>0.02296533500914422</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27">
       <c r="A157" s="1"/>
       <c r="B157" s="1">
         <v>1965</v>
@@ -9537,8 +12111,26 @@
       <c r="U157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:21">
+      <c r="V157">
+        <v>22838.639228342</v>
+      </c>
+      <c r="W157">
+        <v>23031.87209177664</v>
+      </c>
+      <c r="X157">
+        <v>0.0524867008005389</v>
+      </c>
+      <c r="Y157">
+        <v>0.05018858297867183</v>
+      </c>
+      <c r="Z157">
+        <v>0.02248991623120099</v>
+      </c>
+      <c r="AA157">
+        <v>0.02229665300923925</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27">
       <c r="A158" s="1"/>
       <c r="B158" s="1">
         <v>1966</v>
@@ -9600,8 +12192,26 @@
       <c r="U158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:21">
+      <c r="V158">
+        <v>24041.66528727117</v>
+      </c>
+      <c r="W158">
+        <v>24210.80305623576</v>
+      </c>
+      <c r="X158">
+        <v>0.05267503229510522</v>
+      </c>
+      <c r="Y158">
+        <v>0.05118693607542445</v>
+      </c>
+      <c r="Z158">
+        <v>0.02729650784061867</v>
+      </c>
+      <c r="AA158">
+        <v>0.02690508565228245</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27">
       <c r="A159" s="1"/>
       <c r="B159" s="1">
         <v>1967</v>
@@ -9663,8 +12273,26 @@
       <c r="U159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:21">
+      <c r="V159">
+        <v>24391.86685429297</v>
+      </c>
+      <c r="W159">
+        <v>24521.27057462332</v>
+      </c>
+      <c r="X159">
+        <v>0.01456644383145977</v>
+      </c>
+      <c r="Y159">
+        <v>0.01282351178795759</v>
+      </c>
+      <c r="Z159">
+        <v>0.02835691524819908</v>
+      </c>
+      <c r="AA159">
+        <v>0.02780597455608577</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27">
       <c r="A160" s="1"/>
       <c r="B160" s="1">
         <v>1968</v>
@@ -9726,8 +12354,26 @@
       <c r="U160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:21">
+      <c r="V160">
+        <v>25320.06183140344</v>
+      </c>
+      <c r="W160">
+        <v>25400.14146099851</v>
+      </c>
+      <c r="X160">
+        <v>0.03805346194512815</v>
+      </c>
+      <c r="Y160">
+        <v>0.0358411642537283</v>
+      </c>
+      <c r="Z160">
+        <v>0.03462271163182948</v>
+      </c>
+      <c r="AA160">
+        <v>0.03417560256625672</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
       <c r="A161" s="1"/>
       <c r="B161" s="1">
         <v>1969</v>
@@ -9789,8 +12435,26 @@
       <c r="U161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:21">
+      <c r="V161">
+        <v>25878.5788172016</v>
+      </c>
+      <c r="W161">
+        <v>25949.69503397187</v>
+      </c>
+      <c r="X161">
+        <v>0.02205827890615423</v>
+      </c>
+      <c r="Y161">
+        <v>0.0216358469427107</v>
+      </c>
+      <c r="Z161">
+        <v>0.03134977814164763</v>
+      </c>
+      <c r="AA161">
+        <v>0.03084421698773479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162" s="1"/>
       <c r="B162" s="1">
         <v>1970</v>
@@ -9852,8 +12516,26 @@
       <c r="U162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:21">
+      <c r="V162">
+        <v>25650.74108739857</v>
+      </c>
+      <c r="W162">
+        <v>25742.69534112493</v>
+      </c>
+      <c r="X162">
+        <v>-0.008804105179515914</v>
+      </c>
+      <c r="Y162">
+        <v>-0.007976960522115909</v>
+      </c>
+      <c r="Z162">
+        <v>0.02955586412483664</v>
+      </c>
+      <c r="AA162">
+        <v>0.02894576130986911</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163" s="1"/>
       <c r="B163" s="1">
         <v>1971</v>
@@ -9915,8 +12597,26 @@
       <c r="U163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:21">
+      <c r="V163">
+        <v>26198.80182236223</v>
+      </c>
+      <c r="W163">
+        <v>26288.00377919609</v>
+      </c>
+      <c r="X163">
+        <v>0.02136627293130771</v>
+      </c>
+      <c r="Y163">
+        <v>0.02118303584162812</v>
+      </c>
+      <c r="Z163">
+        <v>0.03073321147791403</v>
+      </c>
+      <c r="AA163">
+        <v>0.03011538024806701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164" s="1"/>
       <c r="B164" s="1">
         <v>1972</v>
@@ -9978,8 +12678,26 @@
       <c r="U164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:21">
+      <c r="V164">
+        <v>27371.85945347594</v>
+      </c>
+      <c r="W164">
+        <v>27466.48342485301</v>
+      </c>
+      <c r="X164">
+        <v>0.04477523968719923</v>
+      </c>
+      <c r="Y164">
+        <v>0.04482956011249294</v>
+      </c>
+      <c r="Z164">
+        <v>0.03081642850540526</v>
+      </c>
+      <c r="AA164">
+        <v>0.03032661471723206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165" s="1"/>
       <c r="B165" s="1">
         <v>1973</v>
@@ -10041,8 +12759,26 @@
       <c r="U165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:21">
+      <c r="V165">
+        <v>28701.21762479997</v>
+      </c>
+      <c r="W165">
+        <v>28898.02467205366</v>
+      </c>
+      <c r="X165">
+        <v>0.0485666008034109</v>
+      </c>
+      <c r="Y165">
+        <v>0.05211956787687387</v>
+      </c>
+      <c r="Z165">
+        <v>0.03293437243061207</v>
+      </c>
+      <c r="AA165">
+        <v>0.03268058707526831</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166" s="1"/>
       <c r="B166" s="1">
         <v>1974</v>
@@ -10104,8 +12840,26 @@
       <c r="U166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:21">
+      <c r="V166">
+        <v>27925.17935677464</v>
+      </c>
+      <c r="W166">
+        <v>28383.22169818618</v>
+      </c>
+      <c r="X166">
+        <v>-0.02703851377213979</v>
+      </c>
+      <c r="Y166">
+        <v>-0.01781446931787454</v>
+      </c>
+      <c r="Z166">
+        <v>0.02587054122486476</v>
+      </c>
+      <c r="AA166">
+        <v>0.02640167760294972</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167" s="1"/>
       <c r="B167" s="1">
         <v>1975</v>
@@ -10167,8 +12921,26 @@
       <c r="U167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:21">
+      <c r="V167">
+        <v>27540.55917919483</v>
+      </c>
+      <c r="W167">
+        <v>27991.2145508165</v>
+      </c>
+      <c r="X167">
+        <v>-0.01377323929296429</v>
+      </c>
+      <c r="Y167">
+        <v>-0.01381122803951222</v>
+      </c>
+      <c r="Z167">
+        <v>0.01924454721551445</v>
+      </c>
+      <c r="AA167">
+        <v>0.02000169650113132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168" s="1"/>
       <c r="B168" s="1">
         <v>1976</v>
@@ -10230,8 +13002,26 @@
       <c r="U168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:21">
+      <c r="V168">
+        <v>28899.07270065753</v>
+      </c>
+      <c r="W168">
+        <v>29322.2239268663</v>
+      </c>
+      <c r="X168">
+        <v>0.04932773923083496</v>
+      </c>
+      <c r="Y168">
+        <v>0.04755096902399219</v>
+      </c>
+      <c r="Z168">
+        <v>0.01890981790908742</v>
+      </c>
+      <c r="AA168">
+        <v>0.01963809979598809</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169" s="1"/>
       <c r="B169" s="1">
         <v>1977</v>
@@ -10293,8 +13083,26 @@
       <c r="U169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:21">
+      <c r="V169">
+        <v>29935.94419130991</v>
+      </c>
+      <c r="W169">
+        <v>30429.9433051135</v>
+      </c>
+      <c r="X169">
+        <v>0.03587905748369508</v>
+      </c>
+      <c r="Y169">
+        <v>0.03777746807370438</v>
+      </c>
+      <c r="Z169">
+        <v>0.02104107927431095</v>
+      </c>
+      <c r="AA169">
+        <v>0.02213349542456277</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170" s="1"/>
       <c r="B170" s="1">
         <v>1978</v>
@@ -10356,8 +13164,26 @@
       <c r="U170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:21">
+      <c r="V170">
+        <v>31354.63155434728</v>
+      </c>
+      <c r="W170">
+        <v>31882.51220962379</v>
+      </c>
+      <c r="X170">
+        <v>0.04739076723189511</v>
+      </c>
+      <c r="Y170">
+        <v>0.04773485411871285</v>
+      </c>
+      <c r="Z170">
+        <v>0.02197480980298765</v>
+      </c>
+      <c r="AA170">
+        <v>0.02332286441106123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171" s="1"/>
       <c r="B171" s="1">
         <v>1979</v>
@@ -10419,8 +13245,26 @@
       <c r="U171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:21">
+      <c r="V171">
+        <v>31934.95701463893</v>
+      </c>
+      <c r="W171">
+        <v>32635.85251655776</v>
+      </c>
+      <c r="X171">
+        <v>0.01850844457495134</v>
+      </c>
+      <c r="Y171">
+        <v>0.02362863697756441</v>
+      </c>
+      <c r="Z171">
+        <v>0.02161982636986736</v>
+      </c>
+      <c r="AA171">
+        <v>0.0235221434145466</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172" s="1"/>
       <c r="B172" s="1">
         <v>1980</v>
@@ -10482,8 +13326,26 @@
       <c r="U172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:21">
+      <c r="V172">
+        <v>31077.88860350149</v>
+      </c>
+      <c r="W172">
+        <v>32151.75916028745</v>
+      </c>
+      <c r="X172">
+        <v>-0.02683793846174798</v>
+      </c>
+      <c r="Y172">
+        <v>-0.01483317636714744</v>
+      </c>
+      <c r="Z172">
+        <v>0.01981644304164415</v>
+      </c>
+      <c r="AA172">
+        <v>0.02283652183004345</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173" s="1"/>
       <c r="B173" s="1">
         <v>1981</v>
@@ -10545,8 +13407,26 @@
       <c r="U173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:21">
+      <c r="V173">
+        <v>31651.45939175938</v>
+      </c>
+      <c r="W173">
+        <v>32667.79504436436</v>
+      </c>
+      <c r="X173">
+        <v>0.01845591235542528</v>
+      </c>
+      <c r="Y173">
+        <v>0.01605000465151213</v>
+      </c>
+      <c r="Z173">
+        <v>0.01952540698405591</v>
+      </c>
+      <c r="AA173">
+        <v>0.02232321871103185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27">
       <c r="A174" s="1"/>
       <c r="B174" s="1">
         <v>1982</v>
@@ -10608,8 +13488,26 @@
       <c r="U174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:21">
+      <c r="V174">
+        <v>30778.72271509646</v>
+      </c>
+      <c r="W174">
+        <v>31618.3156596457</v>
+      </c>
+      <c r="X174">
+        <v>-0.02757334711997973</v>
+      </c>
+      <c r="Y174">
+        <v>-0.03212581024502617</v>
+      </c>
+      <c r="Z174">
+        <v>0.01229054830333801</v>
+      </c>
+      <c r="AA174">
+        <v>0.01462768167527994</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27">
       <c r="A175" s="1"/>
       <c r="B175" s="1">
         <v>1983</v>
@@ -10671,8 +13569,26 @@
       <c r="U175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:21">
+      <c r="V175">
+        <v>32056.30137789864</v>
+      </c>
+      <c r="W175">
+        <v>32739.64429089012</v>
+      </c>
+      <c r="X175">
+        <v>0.0415085016564234</v>
+      </c>
+      <c r="Y175">
+        <v>0.03546452769068797</v>
+      </c>
+      <c r="Z175">
+        <v>0.01158473838863926</v>
+      </c>
+      <c r="AA175">
+        <v>0.01296217765666135</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27">
       <c r="A176" s="1"/>
       <c r="B176" s="1">
         <v>1984</v>
@@ -10734,8 +13650,26 @@
       <c r="U176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:21">
+      <c r="V176">
+        <v>34323.88184093599</v>
+      </c>
+      <c r="W176">
+        <v>34892.98265250235</v>
+      </c>
+      <c r="X176">
+        <v>0.07073743275326039</v>
+      </c>
+      <c r="Y176">
+        <v>0.06577158696288578</v>
+      </c>
+      <c r="Z176">
+        <v>0.02136233304117928</v>
+      </c>
+      <c r="AA176">
+        <v>0.02132078328473738</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
       <c r="A177" s="1"/>
       <c r="B177" s="1">
         <v>1985</v>
@@ -10797,8 +13731,26 @@
       <c r="U177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:21">
+      <c r="V177">
+        <v>35453.10538907332</v>
+      </c>
+      <c r="W177">
+        <v>35815.8022104918</v>
+      </c>
+      <c r="X177">
+        <v>0.03289906291399047</v>
+      </c>
+      <c r="Y177">
+        <v>0.02644713887545159</v>
+      </c>
+      <c r="Z177">
+        <v>0.02602956326187476</v>
+      </c>
+      <c r="AA177">
+        <v>0.02534661997623376</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
       <c r="A178" s="1"/>
       <c r="B178" s="1">
         <v>1986</v>
@@ -10860,8 +13812,26 @@
       <c r="U178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:21">
+      <c r="V178">
+        <v>36263.41100248202</v>
+      </c>
+      <c r="W178">
+        <v>36625.01209720215</v>
+      </c>
+      <c r="X178">
+        <v>0.02285570204686326</v>
+      </c>
+      <c r="Y178">
+        <v>0.02259365522387512</v>
+      </c>
+      <c r="Z178">
+        <v>0.02338235954347759</v>
+      </c>
+      <c r="AA178">
+        <v>0.02285088859622205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
       <c r="A179" s="1"/>
       <c r="B179" s="1">
         <v>1987</v>
@@ -10923,8 +13893,26 @@
       <c r="U179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:21">
+      <c r="V179">
+        <v>37051.71511451977</v>
+      </c>
+      <c r="W179">
+        <v>37553.80532468627</v>
+      </c>
+      <c r="X179">
+        <v>0.02173827806721762</v>
+      </c>
+      <c r="Y179">
+        <v>0.02535953367111835</v>
+      </c>
+      <c r="Z179">
+        <v>0.02196828160182984</v>
+      </c>
+      <c r="AA179">
+        <v>0.02160909515596345</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
       <c r="A180" s="1"/>
       <c r="B180" s="1">
         <v>1988</v>
@@ -10986,8 +13974,26 @@
       <c r="U180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:21">
+      <c r="V180">
+        <v>38219.520121438</v>
+      </c>
+      <c r="W180">
+        <v>38724.43581941849</v>
+      </c>
+      <c r="X180">
+        <v>0.03151824425154857</v>
+      </c>
+      <c r="Y180">
+        <v>0.03117208721222981</v>
+      </c>
+      <c r="Z180">
+        <v>0.02038102930379519</v>
+      </c>
+      <c r="AA180">
+        <v>0.01995281846531515</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27">
       <c r="A181" s="1"/>
       <c r="B181" s="1">
         <v>1989</v>
@@ -11049,8 +14055,26 @@
       <c r="U181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:21">
+      <c r="V181">
+        <v>39227.44144024166</v>
+      </c>
+      <c r="W181">
+        <v>39706.95760782623</v>
+      </c>
+      <c r="X181">
+        <v>0.02637189885171527</v>
+      </c>
+      <c r="Y181">
+        <v>0.02537213951907478</v>
+      </c>
+      <c r="Z181">
+        <v>0.02116737473147158</v>
+      </c>
+      <c r="AA181">
+        <v>0.02012716871946618</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27">
       <c r="A182" s="1"/>
       <c r="B182" s="1">
         <v>1990</v>
@@ -11112,8 +14136,26 @@
       <c r="U182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:21">
+      <c r="V182">
+        <v>39433.95036808471</v>
+      </c>
+      <c r="W182">
+        <v>39956.50349390205</v>
+      </c>
+      <c r="X182">
+        <v>0.005264399620802316</v>
+      </c>
+      <c r="Y182">
+        <v>0.006284689160537193</v>
+      </c>
+      <c r="Z182">
+        <v>0.02437760853972661</v>
+      </c>
+      <c r="AA182">
+        <v>0.02223895527223465</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27">
       <c r="A183" s="1"/>
       <c r="B183" s="1">
         <v>1991</v>
@@ -11175,8 +14217,26 @@
       <c r="U183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:21">
+      <c r="V183">
+        <v>38997.12418645338</v>
+      </c>
+      <c r="W183">
+        <v>39423.46429537336</v>
+      </c>
+      <c r="X183">
+        <v>-0.01107741368931859</v>
+      </c>
+      <c r="Y183">
+        <v>-0.01334048657711088</v>
+      </c>
+      <c r="Z183">
+        <v>0.02142427593525222</v>
+      </c>
+      <c r="AA183">
+        <v>0.01929990614937235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27">
       <c r="A184" s="1"/>
       <c r="B184" s="1">
         <v>1992</v>
@@ -11238,8 +14298,26 @@
       <c r="U184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:21">
+      <c r="V184">
+        <v>40030.82902263803</v>
+      </c>
+      <c r="W184">
+        <v>40469.86130279179</v>
+      </c>
+      <c r="X184">
+        <v>0.02650720681972074</v>
+      </c>
+      <c r="Y184">
+        <v>0.02654249255160531</v>
+      </c>
+      <c r="Z184">
+        <v>0.02683233132922227</v>
+      </c>
+      <c r="AA184">
+        <v>0.0251667364290355</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27">
       <c r="A185" s="1"/>
       <c r="B185" s="1">
         <v>1993</v>
@@ -11301,8 +14379,26 @@
       <c r="U185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:21">
+      <c r="V185">
+        <v>40879.36861724984</v>
+      </c>
+      <c r="W185">
+        <v>41256.22674007942</v>
+      </c>
+      <c r="X185">
+        <v>0.02119715267780105</v>
+      </c>
+      <c r="Y185">
+        <v>0.01943089034588264</v>
+      </c>
+      <c r="Z185">
+        <v>0.02480119643136004</v>
+      </c>
+      <c r="AA185">
+        <v>0.02356337269455496</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27">
       <c r="A186" s="1"/>
       <c r="B186" s="1">
         <v>1994</v>
@@ -11364,8 +14460,26 @@
       <c r="U186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:21">
+      <c r="V186">
+        <v>42255.46964938588</v>
+      </c>
+      <c r="W186">
+        <v>42594.49511162451</v>
+      </c>
+      <c r="X186">
+        <v>0.03366248253539231</v>
+      </c>
+      <c r="Y186">
+        <v>0.03243797305983381</v>
+      </c>
+      <c r="Z186">
+        <v>0.02109370140957323</v>
+      </c>
+      <c r="AA186">
+        <v>0.02023001130424976</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27">
       <c r="A187" s="1"/>
       <c r="B187" s="1">
         <v>1995</v>
@@ -11427,8 +14541,26 @@
       <c r="U187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:21">
+      <c r="V187">
+        <v>42973.37783648607</v>
+      </c>
+      <c r="W187">
+        <v>43325.305761647</v>
+      </c>
+      <c r="X187">
+        <v>0.01698971028027906</v>
+      </c>
+      <c r="Y187">
+        <v>0.01715739670366566</v>
+      </c>
+      <c r="Z187">
+        <v>0.01950276614620209</v>
+      </c>
+      <c r="AA187">
+        <v>0.01930103708707117</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27">
       <c r="A188" s="1"/>
       <c r="B188" s="1">
         <v>1996</v>
@@ -11490,8 +14622,26 @@
       <c r="U188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:21">
+      <c r="V188">
+        <v>44242.2360568184</v>
+      </c>
+      <c r="W188">
+        <v>44560.2018481071</v>
+      </c>
+      <c r="X188">
+        <v>0.02952661122335655</v>
+      </c>
+      <c r="Y188">
+        <v>0.02850288220131326</v>
+      </c>
+      <c r="Z188">
+        <v>0.02016985706385141</v>
+      </c>
+      <c r="AA188">
+        <v>0.01989195978481498</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27">
       <c r="A189" s="1"/>
       <c r="B189" s="1">
         <v>1997</v>
@@ -11553,8 +14703,26 @@
       <c r="U189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:21">
+      <c r="V189">
+        <v>45878.5542786604</v>
+      </c>
+      <c r="W189">
+        <v>46062.76431256343</v>
+      </c>
+      <c r="X189">
+        <v>0.03698543219516626</v>
+      </c>
+      <c r="Y189">
+        <v>0.03371983074893015</v>
+      </c>
+      <c r="Z189">
+        <v>0.02169457247664628</v>
+      </c>
+      <c r="AA189">
+        <v>0.02072798949259616</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27">
       <c r="A190" s="1"/>
       <c r="B190" s="1">
         <v>1998</v>
@@ -11616,8 +14784,26 @@
       <c r="U190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:21">
+      <c r="V190">
+        <v>47651.39224610498</v>
+      </c>
+      <c r="W190">
+        <v>47565.97511199613</v>
+      </c>
+      <c r="X190">
+        <v>0.0386419754353329</v>
+      </c>
+      <c r="Y190">
+        <v>0.03263396849638699</v>
+      </c>
+      <c r="Z190">
+        <v>0.02240694559502471</v>
+      </c>
+      <c r="AA190">
+        <v>0.02087417762101188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27">
       <c r="A191" s="1"/>
       <c r="B191" s="1">
         <v>1999</v>
@@ -11679,8 +14865,26 @@
       <c r="U191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:21">
+      <c r="V191">
+        <v>49313.00138743193</v>
+      </c>
+      <c r="W191">
+        <v>49157.10440160471</v>
+      </c>
+      <c r="X191">
+        <v>0.03487010689520353</v>
+      </c>
+      <c r="Y191">
+        <v>0.03345099697551028</v>
+      </c>
+      <c r="Z191">
+        <v>0.02325676639937354</v>
+      </c>
+      <c r="AA191">
+        <v>0.02168206336665544</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27">
       <c r="A192" s="1"/>
       <c r="B192" s="1">
         <v>2000</v>
@@ -11742,8 +14946,26 @@
       <c r="U192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:21">
+      <c r="V192">
+        <v>50657.60084926071</v>
+      </c>
+      <c r="W192">
+        <v>50605.13595225817</v>
+      </c>
+      <c r="X192">
+        <v>0.02726663200369445</v>
+      </c>
+      <c r="Y192">
+        <v>0.02945721820437801</v>
+      </c>
+      <c r="Z192">
+        <v>0.02545698963766275</v>
+      </c>
+      <c r="AA192">
+        <v>0.02399931627103951</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
       <c r="A193" s="1"/>
       <c r="B193" s="1">
         <v>2001</v>
@@ -11805,8 +15027,26 @@
       <c r="U193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:21">
+      <c r="V193">
+        <v>50615.55851924782</v>
+      </c>
+      <c r="W193">
+        <v>50425.51973022812</v>
+      </c>
+      <c r="X193">
+        <v>-0.0008299313293180392</v>
+      </c>
+      <c r="Y193">
+        <v>-0.003549367443642478</v>
+      </c>
+      <c r="Z193">
+        <v>0.0264817378736628</v>
+      </c>
+      <c r="AA193">
+        <v>0.02497842818438635</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
       <c r="A194" s="1"/>
       <c r="B194" s="1">
         <v>2002</v>
@@ -11868,8 +15108,26 @@
       <c r="U194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:21">
+      <c r="V194">
+        <v>50958.91316024987</v>
+      </c>
+      <c r="W194">
+        <v>50585.14993990349</v>
+      </c>
+      <c r="X194">
+        <v>0.006783579022870478</v>
+      </c>
+      <c r="Y194">
+        <v>0.003165663150907937</v>
+      </c>
+      <c r="Z194">
+        <v>0.02450937509397778</v>
+      </c>
+      <c r="AA194">
+        <v>0.02264074524431662</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
       <c r="A195" s="1"/>
       <c r="B195" s="1">
         <v>2003</v>
@@ -11931,8 +15189,26 @@
       <c r="U195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:21">
+      <c r="V195">
+        <v>51887.50482901105</v>
+      </c>
+      <c r="W195">
+        <v>51516.70194371598</v>
+      </c>
+      <c r="X195">
+        <v>0.01822236015593684</v>
+      </c>
+      <c r="Y195">
+        <v>0.01841552323002299</v>
+      </c>
+      <c r="Z195">
+        <v>0.02421189584179136</v>
+      </c>
+      <c r="AA195">
+        <v>0.02253920853273065</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
       <c r="A196" s="1"/>
       <c r="B196" s="1">
         <v>2004</v>
@@ -11994,8 +15270,26 @@
       <c r="U196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:21">
+      <c r="V196">
+        <v>53427.74519471801</v>
+      </c>
+      <c r="W196">
+        <v>53042.69340788539</v>
+      </c>
+      <c r="X196">
+        <v>0.02968422495517242</v>
+      </c>
+      <c r="Y196">
+        <v>0.02962129574670013</v>
+      </c>
+      <c r="Z196">
+        <v>0.02381407008376937</v>
+      </c>
+      <c r="AA196">
+        <v>0.02225754080141729</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
       <c r="A197" s="1"/>
       <c r="B197" s="1">
         <v>2005</v>
@@ -12057,8 +15351,26 @@
       <c r="U197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:21">
+      <c r="V197">
+        <v>54700.31197519008</v>
+      </c>
+      <c r="W197">
+        <v>54456.30012845563</v>
+      </c>
+      <c r="X197">
+        <v>0.02381846315681466</v>
+      </c>
+      <c r="Y197">
+        <v>0.02665035709442488</v>
+      </c>
+      <c r="Z197">
+        <v>0.02449694537142293</v>
+      </c>
+      <c r="AA197">
+        <v>0.0232068368404932</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27">
       <c r="A198" s="1"/>
       <c r="B198" s="1">
         <v>2006</v>
@@ -12120,8 +15432,26 @@
       <c r="U198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:21">
+      <c r="V198">
+        <v>55759.26041301973</v>
+      </c>
+      <c r="W198">
+        <v>55548.77442710935</v>
+      </c>
+      <c r="X198">
+        <v>0.01935909320425713</v>
+      </c>
+      <c r="Y198">
+        <v>0.02006148592682033</v>
+      </c>
+      <c r="Z198">
+        <v>0.02348019356951299</v>
+      </c>
+      <c r="AA198">
+        <v>0.02236269721304391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27">
       <c r="A199" s="1"/>
       <c r="B199" s="1">
         <v>2007</v>
@@ -12183,8 +15513,26 @@
       <c r="U199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:21">
+      <c r="V199">
+        <v>56241.34868629264</v>
+      </c>
+      <c r="W199">
+        <v>56093.57480009276</v>
+      </c>
+      <c r="X199">
+        <v>0.00864588715312924</v>
+      </c>
+      <c r="Y199">
+        <v>0.009807603832885488</v>
+      </c>
+      <c r="Z199">
+        <v>0.02064623906530929</v>
+      </c>
+      <c r="AA199">
+        <v>0.01997147452143945</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27">
       <c r="A200" s="1"/>
       <c r="B200" s="1">
         <v>2008</v>
@@ -12246,8 +15594,26 @@
       <c r="U200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:21">
+      <c r="V200">
+        <v>54941.6330571356</v>
+      </c>
+      <c r="W200">
+        <v>55459.44621532885</v>
+      </c>
+      <c r="X200">
+        <v>-0.02310960991363662</v>
+      </c>
+      <c r="Y200">
+        <v>-0.01130483459155218</v>
+      </c>
+      <c r="Z200">
+        <v>0.01447108053041233</v>
+      </c>
+      <c r="AA200">
+        <v>0.01557759421264553</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27">
       <c r="A201" s="1"/>
       <c r="B201" s="1">
         <v>2009</v>
@@ -12309,8 +15675,26 @@
       <c r="U201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:21">
+      <c r="V201">
+        <v>53294.39038528076</v>
+      </c>
+      <c r="W201">
+        <v>53363.26011625209</v>
+      </c>
+      <c r="X201">
+        <v>-0.02998168383786147</v>
+      </c>
+      <c r="Y201">
+        <v>-0.03779673693347085</v>
+      </c>
+      <c r="Z201">
+        <v>0.007985901457105834</v>
+      </c>
+      <c r="AA201">
+        <v>0.008452820821747416</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27">
       <c r="A202" s="1"/>
       <c r="B202" s="1">
         <v>2010</v>
@@ -12372,8 +15756,26 @@
       <c r="U202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:21">
+      <c r="V202">
+        <v>54139.80517170834</v>
+      </c>
+      <c r="W202">
+        <v>54362.75101881502</v>
+      </c>
+      <c r="X202">
+        <v>0.0158631101756832</v>
+      </c>
+      <c r="Y202">
+        <v>0.01872994454209762</v>
+      </c>
+      <c r="Z202">
+        <v>0.006845549274304709</v>
+      </c>
+      <c r="AA202">
+        <v>0.007380093455519378</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27">
       <c r="A203" s="1"/>
       <c r="B203" s="1">
         <v>2011</v>
@@ -12435,8 +15837,26 @@
       <c r="U203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:21">
+      <c r="V203">
+        <v>54452.94224106079</v>
+      </c>
+      <c r="W203">
+        <v>54832.4750723254</v>
+      </c>
+      <c r="X203">
+        <v>0.005783860292058944</v>
+      </c>
+      <c r="Y203">
+        <v>0.008640549727658287</v>
+      </c>
+      <c r="Z203">
+        <v>0.007506928436442406</v>
+      </c>
+      <c r="AA203">
+        <v>0.008599085172649453</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27">
       <c r="A204" s="1"/>
       <c r="B204" s="1">
         <v>2012</v>
@@ -12498,8 +15918,26 @@
       <c r="U204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:21">
+      <c r="V204">
+        <v>55446.91445643878</v>
+      </c>
+      <c r="W204">
+        <v>55788.97946594808</v>
+      </c>
+      <c r="X204">
+        <v>0.01825378344071319</v>
+      </c>
+      <c r="Y204">
+        <v>0.01744412216229572</v>
+      </c>
+      <c r="Z204">
+        <v>0.008653948878226677</v>
+      </c>
+      <c r="AA204">
+        <v>0.01002693107378823</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27">
       <c r="A205" s="1"/>
       <c r="B205" s="1">
         <v>2013</v>
@@ -12561,8 +15999,26 @@
       <c r="U205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:21">
+      <c r="V205">
+        <v>56326.37616873196</v>
+      </c>
+      <c r="W205">
+        <v>56565.48924682931</v>
+      </c>
+      <c r="X205">
+        <v>0.01586132827975703</v>
+      </c>
+      <c r="Y205">
+        <v>0.01391869484465464</v>
+      </c>
+      <c r="Z205">
+        <v>0.008417845690608697</v>
+      </c>
+      <c r="AA205">
+        <v>0.0095772482352514</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27">
       <c r="A206" s="1"/>
       <c r="B206" s="1">
         <v>2014</v>
@@ -12624,8 +16080,26 @@
       <c r="U206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:21">
+      <c r="V206">
+        <v>57527.24731460476</v>
+      </c>
+      <c r="W206">
+        <v>57661.78564462492</v>
+      </c>
+      <c r="X206">
+        <v>0.02131987227929324</v>
+      </c>
+      <c r="Y206">
+        <v>0.01938101150353014</v>
+      </c>
+      <c r="Z206">
+        <v>0.00758141042302078</v>
+      </c>
+      <c r="AA206">
+        <v>0.0085532198109344</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27">
       <c r="A207" s="1"/>
       <c r="B207" s="1">
         <v>2015</v>
@@ -12687,8 +16161,26 @@
       <c r="U207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:21">
+      <c r="V207">
+        <v>59324.44109684444</v>
+      </c>
+      <c r="W207">
+        <v>58948.62059891153</v>
+      </c>
+      <c r="X207">
+        <v>0.03124074010374947</v>
+      </c>
+      <c r="Y207">
+        <v>0.02231694596170675</v>
+      </c>
+      <c r="Z207">
+        <v>0.008323638117714261</v>
+      </c>
+      <c r="AA207">
+        <v>0.008119878697662588</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27">
       <c r="A208" s="1"/>
       <c r="B208" s="1">
         <v>2016</v>
@@ -12750,8 +16242,26 @@
       <c r="U208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:21">
+      <c r="V208">
+        <v>60101.4509207556</v>
+      </c>
+      <c r="W208">
+        <v>59509.15161576362</v>
+      </c>
+      <c r="X208">
+        <v>0.01309763412086295</v>
+      </c>
+      <c r="Y208">
+        <v>0.009508806332652985</v>
+      </c>
+      <c r="Z208">
+        <v>0.007697492209374842</v>
+      </c>
+      <c r="AA208">
+        <v>0.007064610738245854</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
       <c r="A209" s="1"/>
       <c r="B209" s="1">
         <v>2017</v>
@@ -12813,8 +16323,26 @@
       <c r="U209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:21">
+      <c r="V209">
+        <v>61157.20059002032</v>
+      </c>
+      <c r="W209">
+        <v>60501.58599731261</v>
+      </c>
+      <c r="X209">
+        <v>0.01756612615986164</v>
+      </c>
+      <c r="Y209">
+        <v>0.01667700436996487</v>
+      </c>
+      <c r="Z209">
+        <v>0.008589516110048082</v>
+      </c>
+      <c r="AA209">
+        <v>0.007751550791953792</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
       <c r="A210" s="1"/>
       <c r="B210" s="1">
         <v>2018</v>
@@ -12876,8 +16404,26 @@
       <c r="U210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:21">
+      <c r="V210">
+        <v>62658.85934066992</v>
+      </c>
+      <c r="W210">
+        <v>62000.01577434779</v>
+      </c>
+      <c r="X210">
+        <v>0.02455407926069529</v>
+      </c>
+      <c r="Y210">
+        <v>0.02476678507405963</v>
+      </c>
+      <c r="Z210">
+        <v>0.01335588502748127</v>
+      </c>
+      <c r="AA210">
+        <v>0.01135871275851497</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
       <c r="A211" s="1"/>
       <c r="B211" s="1">
         <v>2019</v>
@@ -12938,6 +16484,24 @@
       </c>
       <c r="U211">
         <v>0</v>
+      </c>
+      <c r="V211">
+        <v>63774.82176386209</v>
+      </c>
+      <c r="W211">
+        <v>62965.69604669746</v>
+      </c>
+      <c r="X211">
+        <v>0.01781012988322679</v>
+      </c>
+      <c r="Y211">
+        <v>0.01557548430091225</v>
+      </c>
+      <c r="Z211">
+        <v>0.0181350663995901</v>
+      </c>
+      <c r="AA211">
+        <v>0.01669593488195328</v>
       </c>
     </row>
   </sheetData>

--- a/Ken_Jpn_USA.xlsx
+++ b/Ken_Jpn_USA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Econ1540\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D3B6CB-5725-45FC-9EA6-AFEB15077C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE57D7BC-5D7A-4200-B548-A1A7B3AB457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1200" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,9 +534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146:E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6709,10 +6709,6 @@
       <c r="E72">
         <v>84.274266913120172</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="0"/>
-        <v>1.0050657028005014</v>
-      </c>
       <c r="G72">
         <v>2.2900006771087651</v>
       </c>
@@ -6748,10 +6744,6 @@
       <c r="E73">
         <v>85.64072436572404</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="0"/>
-        <v>0.98342167094784905</v>
-      </c>
       <c r="G73">
         <v>2.3225193023681641</v>
       </c>
@@ -6805,10 +6797,6 @@
       <c r="E74">
         <v>86.943150343431171</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="0"/>
-        <v>0.96067552280995927</v>
-      </c>
       <c r="G74">
         <v>2.3554997444152832</v>
       </c>
@@ -6862,10 +6850,6 @@
       <c r="E75">
         <v>88.145992263606601</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="0"/>
-        <v>0.93642418839336949</v>
-      </c>
       <c r="G75">
         <v>2.3889484405517578</v>
       </c>
@@ -6919,10 +6903,6 @@
       <c r="E76">
         <v>89.250868942593883</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="0"/>
-        <v>0.91115125972750743</v>
-      </c>
       <c r="G76">
         <v>2.4228720664978032</v>
       </c>
@@ -6982,10 +6962,6 @@
       <c r="E77">
         <v>90.317983469718982</v>
       </c>
-      <c r="F77">
-        <f t="shared" ref="F77:F140" si="3">(E77-E67)/E67</f>
-        <v>0.88640606619492768</v>
-      </c>
       <c r="G77">
         <v>2.4572772979736328</v>
       </c>
@@ -7020,14 +6996,14 @@
         <v>3950.9915970349371</v>
       </c>
       <c r="X77">
-        <f t="shared" ref="X77:X140" si="4">(W77-W67)/W67</f>
+        <f t="shared" ref="X77:X140" si="3">(W77-W67)/W67</f>
         <v>0.17769599040006917</v>
       </c>
       <c r="Y77">
         <v>3785.075719329096</v>
       </c>
       <c r="Z77">
-        <f t="shared" ref="Z77:Z140" si="5">(Y77-Y67)/Y67</f>
+        <f t="shared" ref="Z77:Z140" si="4">(Y77-Y67)/Y67</f>
         <v>6.9765819624455563E-2</v>
       </c>
       <c r="AA77">
@@ -7051,10 +7027,6 @@
       <c r="E78">
         <v>91.274458421060984</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="3"/>
-        <v>0.8607870331040206</v>
-      </c>
       <c r="G78">
         <v>2.4841210842132568</v>
       </c>
@@ -7089,14 +7061,14 @@
         <v>4172.1056918605746</v>
       </c>
       <c r="X78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.16371267838763354</v>
       </c>
       <c r="Y78">
         <v>4000.8286553222501</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.4718835778188053E-2</v>
       </c>
       <c r="AA78">
@@ -7120,10 +7092,6 @@
       <c r="E79">
         <v>92.075718806307179</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="3"/>
-        <v>0.83340551686991071</v>
-      </c>
       <c r="G79">
         <v>2.5112578868865971</v>
       </c>
@@ -7158,14 +7126,14 @@
         <v>4410.6789799199596</v>
       </c>
       <c r="X79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.13077166677193519</v>
       </c>
       <c r="Y79">
         <v>4244.8076845556716</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.9419156753421289E-2</v>
       </c>
       <c r="AA79">
@@ -7189,10 +7157,6 @@
       <c r="E80">
         <v>92.906102541506385</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="3"/>
-        <v>0.80777321664148094</v>
-      </c>
       <c r="G80">
         <v>2.5386912822723389</v>
       </c>
@@ -7227,14 +7191,14 @@
         <v>4760.9614750806031</v>
       </c>
       <c r="X80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.18208108624301339</v>
       </c>
       <c r="Y80">
         <v>4512.6092477369602</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.3215977127920638E-2</v>
       </c>
       <c r="AA80">
@@ -7258,10 +7222,6 @@
       <c r="E81">
         <v>93.818976861187949</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="3"/>
-        <v>0.78451373384294054</v>
-      </c>
       <c r="G81">
         <v>2.5643172264099121</v>
       </c>
@@ -7296,14 +7256,14 @@
         <v>5182.9829371243359</v>
       </c>
       <c r="X81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.25265806838596494</v>
       </c>
       <c r="Y81">
         <v>4889.3762924818966</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.1540617057770059</v>
       </c>
       <c r="AA81">
@@ -7328,7 +7288,7 @@
         <v>94.618503348359994</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F77:F140" si="5">(E82-E72)/E72</f>
         <v>0.12274489964895069</v>
       </c>
       <c r="G82">
@@ -7377,14 +7337,14 @@
         <v>5821.0912031885</v>
       </c>
       <c r="X82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0217899757138105</v>
       </c>
       <c r="Y82">
         <v>5473.6264622914987</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.95143272597171402</v>
       </c>
       <c r="AA82">
@@ -7415,7 +7375,7 @@
         <v>95.4749262431326</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11483090492570028</v>
       </c>
       <c r="G83">
@@ -7464,14 +7424,14 @@
         <v>6398.0895198014177</v>
       </c>
       <c r="X83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0293752348692322</v>
       </c>
       <c r="Y83">
         <v>6018.1743271189926</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.97253419314361989</v>
       </c>
       <c r="AA83">
@@ -7502,7 +7462,7 @@
         <v>96.368367094576271</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10840666244453845</v>
       </c>
       <c r="G84">
@@ -7551,14 +7511,14 @@
         <v>6959.574964487977</v>
       </c>
       <c r="X84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0486752422286378</v>
       </c>
       <c r="Y84">
         <v>6534.113127412732</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.97362206554668707</v>
       </c>
       <c r="AA84">
@@ -7589,7 +7549,7 @@
         <v>97.354042117025031</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10446362468620388</v>
       </c>
       <c r="G85">
@@ -7638,14 +7598,14 @@
         <v>7473.350455499638</v>
       </c>
       <c r="X85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.1259682924049756</v>
       </c>
       <c r="Y85">
         <v>7003.3975752175465</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.052852733119785</v>
       </c>
       <c r="AA85">
@@ -7676,7 +7636,7 @@
         <v>98.374042183649195</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10221943325754433</v>
       </c>
       <c r="G86">
@@ -7731,14 +7691,14 @@
         <v>8251.8598858076057</v>
       </c>
       <c r="X86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.23653988611034</v>
       </c>
       <c r="Y86">
         <v>7711.3076088082726</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1736002528761076</v>
       </c>
       <c r="AA86">
@@ -7769,7 +7729,7 @@
         <v>99.43622354058995</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10095708208463325</v>
       </c>
       <c r="G87">
@@ -7824,14 +7784,14 @@
         <v>8700.6258302523129</v>
       </c>
       <c r="X87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2021372651821856</v>
       </c>
       <c r="Y87">
         <v>8102.6351244233892</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1406797975126319</v>
       </c>
       <c r="AA87">
@@ -7862,7 +7822,7 @@
         <v>100.3490825160408</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.9421286655215046E-2</v>
       </c>
       <c r="G88">
@@ -7917,14 +7877,14 @@
         <v>9497.3464241454858</v>
       </c>
       <c r="X88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2763916174688492</v>
       </c>
       <c r="Y88">
         <v>8851.9138912705912</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2125201186746666</v>
       </c>
       <c r="AA88">
@@ -7955,7 +7915,7 @@
         <v>101.38985099897759</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10115731175842199</v>
       </c>
       <c r="G89">
@@ -8010,14 +7970,14 @@
         <v>10390.77742614124</v>
       </c>
       <c r="X89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.3558226462289034</v>
       </c>
       <c r="Y89">
         <v>9667.9739425781845</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2775999906318929</v>
       </c>
       <c r="AA89">
@@ -8048,7 +8008,7 @@
         <v>102.5315998644439</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10360457558358202</v>
       </c>
       <c r="G90">
@@ -8103,14 +8063,14 @@
         <v>11572.95410945294</v>
       </c>
       <c r="X90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4308018810962988</v>
       </c>
       <c r="Y90">
         <v>10765.293348190229</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3856028202727597</v>
       </c>
       <c r="AA90">
@@ -8141,7 +8101,7 @@
         <v>103.7495405076719</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10584813412724531</v>
       </c>
       <c r="G91">
@@ -8196,14 +8156,14 @@
         <v>12823.37486498671</v>
       </c>
       <c r="X91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4741302490379176</v>
       </c>
       <c r="Y91">
         <v>11935.014304072371</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.4410095664807254</v>
       </c>
       <c r="AA91">
@@ -8234,7 +8194,7 @@
         <v>104.92925099999999</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10897178973206316</v>
       </c>
       <c r="G92">
@@ -8289,14 +8249,14 @@
         <v>14034.253899324989</v>
       </c>
       <c r="X92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4109318011780563</v>
       </c>
       <c r="Y92">
         <v>13023.325116463469</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3792864212022495</v>
       </c>
       <c r="AA92">
@@ -8327,7 +8287,7 @@
         <v>106.427103</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11471259720041083</v>
       </c>
       <c r="G93">
@@ -8382,14 +8342,14 @@
         <v>14751.318797054921</v>
       </c>
       <c r="X93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.3055818071005623</v>
       </c>
       <c r="Y93">
         <v>13613.444875972989</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2620555896209786</v>
       </c>
       <c r="AA93">
@@ -8420,7 +8380,7 @@
         <v>107.976027</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12045093483873116</v>
       </c>
       <c r="G94">
@@ -8475,14 +8435,14 @@
         <v>15883.769968680181</v>
       </c>
       <c r="X94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2822902332008668</v>
       </c>
       <c r="Y94">
         <v>14635.70358075872</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2398913663366462</v>
       </c>
       <c r="AA94">
@@ -8513,7 +8473,7 @@
         <v>109.52851200000001</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1250535634497906</v>
       </c>
       <c r="G95">
@@ -8568,14 +8528,14 @@
         <v>16877.87925029056</v>
       </c>
       <c r="X95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2584086415845961</v>
       </c>
       <c r="Y95">
         <v>15587.0863561079</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2256463650250098</v>
       </c>
       <c r="AA95">
@@ -8606,7 +8566,7 @@
         <v>111.022689</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12857707720028144</v>
       </c>
       <c r="G96">
@@ -8661,14 +8621,14 @@
         <v>16179.93822866243</v>
       </c>
       <c r="X96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.96076259807687059</v>
       </c>
       <c r="Y96">
         <v>15280.525226694879</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.98157381366042729</v>
       </c>
       <c r="AA96">
@@ -8699,7 +8659,7 @@
         <v>112.413359</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.130507123031606</v>
       </c>
       <c r="G97">
@@ -8754,14 +8714,14 @@
         <v>16556.249555713392</v>
       </c>
       <c r="X97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.90288030754602289</v>
       </c>
       <c r="Y97">
         <v>15796.55559442895</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.94955781074408008</v>
       </c>
       <c r="AA97">
@@ -8792,7 +8752,7 @@
         <v>113.679191</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13283737279639193</v>
       </c>
       <c r="G98">
@@ -8847,14 +8807,14 @@
         <v>17407.624100702829</v>
       </c>
       <c r="X98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.83289345500199152</v>
       </c>
       <c r="Y98">
         <v>16670.612566199561</v>
       </c>
       <c r="Z98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.88327776015076953</v>
       </c>
       <c r="AA98">
@@ -8885,7 +8845,7 @@
         <v>114.827832</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13253773300404509</v>
       </c>
       <c r="G99">
@@ -8940,14 +8900,14 @@
         <v>18377.334686594098</v>
       </c>
       <c r="X99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.76861979935785985</v>
       </c>
       <c r="Y99">
         <v>17632.516348475521</v>
       </c>
       <c r="Z99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.82380677204984387</v>
       </c>
       <c r="AA99">
@@ -8978,7 +8938,7 @@
         <v>115.879211</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13018046293243105</v>
       </c>
       <c r="G100">
@@ -9033,14 +8993,14 @@
         <v>19735.200820447419</v>
       </c>
       <c r="X100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.70528636282480806</v>
       </c>
       <c r="Y100">
         <v>18790.568482555511</v>
       </c>
       <c r="Z100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.74547667906461867</v>
       </c>
       <c r="AA100">
@@ -9071,7 +9031,7 @@
         <v>116.867356</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12643733580061584</v>
       </c>
       <c r="G101">
@@ -9126,14 +9086,14 @@
         <v>20628.277497781331</v>
       </c>
       <c r="X101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.60864653142951775</v>
       </c>
       <c r="Y101">
         <v>19873.618514994039</v>
       </c>
       <c r="Z101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.66515246724194721</v>
       </c>
       <c r="AA101">
@@ -9164,7 +9124,7 @@
         <v>117.81694</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12282265314178226</v>
       </c>
       <c r="G102">
@@ -9219,14 +9179,14 @@
         <v>21001.126832864611</v>
       </c>
       <c r="X102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.4964191886164116</v>
       </c>
       <c r="Y102">
         <v>20852.16905141146</v>
       </c>
       <c r="Z102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.60114017464335112</v>
       </c>
       <c r="AA102">
@@ -9257,7 +9217,7 @@
         <v>118.73284099999999</v>
       </c>
       <c r="F103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11562597922072529</v>
       </c>
       <c r="G103">
@@ -9312,14 +9272,14 @@
         <v>20821.876063758969</v>
       </c>
       <c r="X103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.41152640995841178</v>
       </c>
       <c r="Y103">
         <v>20679.116488082691</v>
       </c>
       <c r="Z103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.51902157583788644</v>
       </c>
       <c r="AA103">
@@ -9350,7 +9310,7 @@
         <v>119.60525</v>
       </c>
       <c r="F104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10770189757028192</v>
       </c>
       <c r="G104">
@@ -9405,14 +9365,14 @@
         <v>20316.78793364004</v>
       </c>
       <c r="X104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.2790910453690113</v>
       </c>
       <c r="Y104">
         <v>20248.772524617441</v>
       </c>
       <c r="Z104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.38351890039902942</v>
       </c>
       <c r="AA104">
@@ -9443,7 +9403,7 @@
         <v>120.42763600000001</v>
       </c>
       <c r="F105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.9509468365643464E-2</v>
       </c>
       <c r="G105">
@@ -9498,14 +9458,14 @@
         <v>19788.088757301521</v>
       </c>
       <c r="X105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.17242743971881777</v>
       </c>
       <c r="Y105">
         <v>19793.239153179089</v>
       </c>
       <c r="Z105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.26984855931223994</v>
       </c>
       <c r="AA105">
@@ -9536,7 +9496,7 @@
         <v>121.189266</v>
       </c>
       <c r="F106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.1572065958517759E-2</v>
       </c>
       <c r="G106">
@@ -9591,14 +9551,14 @@
         <v>19706.048058744738</v>
       </c>
       <c r="X106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.21793098219842874</v>
       </c>
       <c r="Y106">
         <v>19753.050983904799</v>
       </c>
       <c r="Z106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.29269450433526167</v>
       </c>
       <c r="AA106">
@@ -9629,7 +9589,7 @@
         <v>121.883482</v>
       </c>
       <c r="F107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.4243750780545579E-2</v>
       </c>
       <c r="G107">
@@ -9684,14 +9644,14 @@
         <v>20046.243838028851</v>
       </c>
       <c r="X107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.21079618729901897</v>
       </c>
       <c r="Y107">
         <v>20254.3442268904</v>
       </c>
       <c r="Z107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.28220004075025068</v>
       </c>
       <c r="AA107">
@@ -9722,7 +9682,7 @@
         <v>122.509117</v>
       </c>
       <c r="F108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.7674074932500184E-2</v>
       </c>
       <c r="G108">
@@ -9777,14 +9737,14 @@
         <v>21311.899587032371</v>
       </c>
       <c r="X108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.22428537425574963</v>
       </c>
       <c r="Y108">
         <v>21946.009536580041</v>
       </c>
       <c r="Z108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.31644889768937412</v>
       </c>
       <c r="AA108">
@@ -9815,7 +9775,7 @@
         <v>123.07271</v>
       </c>
       <c r="F109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.180208714556241E-2</v>
       </c>
       <c r="G109">
@@ -9870,14 +9830,14 @@
         <v>22579.983409807101</v>
       </c>
       <c r="X109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.2286865203733135</v>
       </c>
       <c r="Y109">
         <v>23362.333940643701</v>
       </c>
       <c r="Z109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.32495745240942708</v>
       </c>
       <c r="AA109">
@@ -9908,7 +9868,7 @@
         <v>123.58452699999999</v>
       </c>
       <c r="F110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.6494377494510176E-2</v>
       </c>
       <c r="G110">
@@ -9963,14 +9923,14 @@
         <v>24743.18649939082</v>
       </c>
       <c r="X110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.25375904327027088</v>
       </c>
       <c r="Y110">
         <v>25594.397428085798</v>
       </c>
       <c r="Z110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.36208744572292839</v>
       </c>
       <c r="AA110">
@@ -10001,7 +9961,7 @@
         <v>124.05852</v>
       </c>
       <c r="F111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.1532700371864327E-2</v>
       </c>
       <c r="G111">
@@ -10056,14 +10016,14 @@
         <v>26602.838321785559</v>
       </c>
       <c r="X111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.28962965156188247</v>
       </c>
       <c r="Y111">
         <v>27335.0310804933</v>
       </c>
       <c r="Z111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.37544308098043905</v>
       </c>
       <c r="AA111">
@@ -10094,7 +10054,7 @@
         <v>124.50524</v>
       </c>
       <c r="F112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.6768576742869045E-2</v>
       </c>
       <c r="G112">
@@ -10149,14 +10109,14 @@
         <v>28533.84524217615</v>
       </c>
       <c r="X112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35868163024107863</v>
       </c>
       <c r="Y112">
         <v>29385.457993575212</v>
       </c>
       <c r="Z112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.4092278803766049</v>
       </c>
       <c r="AA112">
@@ -10187,7 +10147,7 @@
         <v>124.929772</v>
       </c>
       <c r="F113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.2192223716772741E-2</v>
       </c>
       <c r="G113">
@@ -10242,14 +10202,14 @@
         <v>30171.953327506271</v>
       </c>
       <c r="X113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.44905066359612816</v>
       </c>
       <c r="Y113">
         <v>31110.08639317776</v>
       </c>
       <c r="Z113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.50442048194401368</v>
       </c>
       <c r="AA113">
@@ -10280,7 +10240,7 @@
         <v>125.33129700000001</v>
       </c>
       <c r="F114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7874545640764168E-2</v>
       </c>
       <c r="G114">
@@ -10335,14 +10295,14 @@
         <v>31104.29791530842</v>
       </c>
       <c r="X114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.53096532861903256</v>
       </c>
       <c r="Y114">
         <v>32143.32609994453</v>
       </c>
       <c r="Z114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.587420968894104</v>
       </c>
       <c r="AA114">
@@ -10373,7 +10333,7 @@
         <v>125.70741099999999</v>
       </c>
       <c r="F115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.3841888584444072E-2</v>
       </c>
       <c r="G115">
@@ -10428,14 +10388,14 @@
         <v>31836.17392295193</v>
       </c>
       <c r="X115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.60885542375611379</v>
       </c>
       <c r="Y115">
         <v>33009.440071914301</v>
       </c>
       <c r="Z115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.66771289006592405</v>
       </c>
       <c r="AA115">
@@ -10466,7 +10426,7 @@
         <v>126.053129</v>
       </c>
       <c r="F116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0134437318895842E-2</v>
       </c>
       <c r="G116">
@@ -10521,14 +10481,14 @@
         <v>32890.355700729968</v>
       </c>
       <c r="X116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.66904879165432529</v>
       </c>
       <c r="Y116">
         <v>33976.026886250482</v>
       </c>
       <c r="Z116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.72003944676368536</v>
       </c>
       <c r="AA116">
@@ -10559,7 +10519,7 @@
         <v>126.365484</v>
       </c>
       <c r="F117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6772841786715561E-2</v>
       </c>
       <c r="G117">
@@ -10614,14 +10574,14 @@
         <v>34702.830719185949</v>
       </c>
       <c r="X117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.73113881082064502</v>
       </c>
       <c r="Y117">
         <v>35783.742972091968</v>
       </c>
       <c r="Z117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.76671940455046561</v>
       </c>
       <c r="AA117">
@@ -10652,7 +10612,7 @@
         <v>126.644094</v>
       </c>
       <c r="F118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.3752402280395118E-2</v>
       </c>
       <c r="G118">
@@ -10707,14 +10667,14 @@
         <v>36720.480625018332</v>
       </c>
       <c r="X118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.72300364287384333</v>
       </c>
       <c r="Y118">
         <v>37559.607793475152</v>
       </c>
       <c r="Z118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.71145500191595457</v>
       </c>
       <c r="AA118">
@@ -10745,7 +10705,7 @@
         <v>126.89273799999999</v>
       </c>
       <c r="F119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1038789996580017E-2</v>
       </c>
       <c r="G119">
@@ -10800,14 +10760,14 @@
         <v>36845.118749033543</v>
       </c>
       <c r="X119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.63176022233172713</v>
       </c>
       <c r="Y119">
         <v>37646.122034186068</v>
       </c>
       <c r="Z119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.61140244505677188</v>
       </c>
       <c r="AA119">
@@ -10838,7 +10798,7 @@
         <v>127.117434</v>
       </c>
       <c r="F120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8586968658301445E-2</v>
       </c>
       <c r="G120">
@@ -10893,14 +10853,14 @@
         <v>36408.223910498382</v>
       </c>
       <c r="X120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.47144442820227522</v>
       </c>
       <c r="Y120">
         <v>37128.616834729379</v>
       </c>
       <c r="Z120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.45065407142528002</v>
       </c>
       <c r="AA120">
@@ -10931,7 +10891,7 @@
         <v>127.32607</v>
       </c>
       <c r="F121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.6338779472784294E-2</v>
       </c>
       <c r="G121">
@@ -10986,14 +10946,14 @@
         <v>36082.382814454257</v>
       </c>
       <c r="X121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35633583071118102</v>
       </c>
       <c r="Y121">
         <v>37066.07766971839</v>
       </c>
       <c r="Z121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.35599178799431896</v>
       </c>
       <c r="AA121">
@@ -11024,7 +10984,7 @@
         <v>127.524174</v>
       </c>
       <c r="F122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4247445328405469E-2</v>
       </c>
       <c r="G122">
@@ -11079,14 +11039,14 @@
         <v>36829.648471198881</v>
       </c>
       <c r="X122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.29073555136412615</v>
       </c>
       <c r="Y122">
         <v>37915.274009145913</v>
       </c>
       <c r="Z122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.2902733732254793</v>
       </c>
       <c r="AA122">
@@ -11117,7 +11077,7 @@
         <v>127.71382800000001</v>
       </c>
       <c r="F123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.22849682299909E-2</v>
       </c>
       <c r="G123">
@@ -11172,14 +11132,14 @@
         <v>36889.126054541252</v>
       </c>
       <c r="X123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.2226296936801658</v>
       </c>
       <c r="Y123">
         <v>37468.683500740422</v>
       </c>
       <c r="Z123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.20439021053175413</v>
       </c>
       <c r="AA123">
@@ -11210,7 +11170,7 @@
         <v>127.893078</v>
       </c>
       <c r="F124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0440074118119086E-2</v>
       </c>
       <c r="G124">
@@ -11265,14 +11225,14 @@
         <v>36764.648044517307</v>
       </c>
       <c r="X124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1819796783268034</v>
       </c>
       <c r="Y124">
         <v>37384.548677450708</v>
       </c>
       <c r="Z124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.16305787898892091</v>
       </c>
       <c r="AA124">
@@ -11303,7 +11263,7 @@
         <v>128.05837199999999</v>
       </c>
       <c r="F125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8701848851218471E-2</v>
       </c>
       <c r="G125">
@@ -11358,14 +11318,14 @@
         <v>37266.665392247844</v>
       </c>
       <c r="X125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.17057613400525062</v>
       </c>
       <c r="Y125">
         <v>37952.087193487037</v>
       </c>
       <c r="Z125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14973435207639677</v>
       </c>
       <c r="AA125">
@@ -11396,7 +11356,7 @@
         <v>128.204195</v>
       </c>
       <c r="F126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7064756877237058E-2</v>
       </c>
       <c r="G126">
@@ -11451,14 +11411,14 @@
         <v>37997.863486448317</v>
       </c>
       <c r="X126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.15528891910417963</v>
       </c>
       <c r="Y126">
         <v>38901.745765807427</v>
       </c>
       <c r="Z126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14497630626582475</v>
       </c>
       <c r="AA126">
@@ -11489,7 +11449,7 @@
         <v>128.32611600000001</v>
       </c>
       <c r="F127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5515565943624434E-2</v>
       </c>
       <c r="G127">
@@ -11544,14 +11504,14 @@
         <v>38466.328241400217</v>
       </c>
       <c r="X127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.10844929489090828</v>
       </c>
       <c r="Y127">
         <v>39823.616262180018</v>
       </c>
       <c r="Z127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11289688988764478</v>
       </c>
       <c r="AA127">
@@ -11582,7 +11542,7 @@
         <v>128.42273399999999</v>
       </c>
       <c r="F128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4044397522398446E-2</v>
       </c>
       <c r="G128">
@@ -11637,14 +11597,14 @@
         <v>38982.743507080297</v>
       </c>
       <c r="X128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.1607659909566757E-2</v>
       </c>
       <c r="Y128">
         <v>40255.95655049674</v>
       </c>
       <c r="Z128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.1788522708961744E-2</v>
       </c>
       <c r="AA128">
@@ -11675,7 +11635,7 @@
         <v>128.494057</v>
       </c>
       <c r="F129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2619469208710776E-2</v>
       </c>
       <c r="G129">
@@ -11730,14 +11690,14 @@
         <v>39759.03726037695</v>
       </c>
       <c r="X129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.9085605102571149E-2</v>
       </c>
       <c r="Y129">
         <v>41021.091738118288</v>
       </c>
       <c r="Z129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.9649863560115006E-2</v>
       </c>
       <c r="AA129">
@@ -11768,7 +11728,7 @@
         <v>128.538646</v>
       </c>
       <c r="F130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1180307494249742E-2</v>
       </c>
       <c r="G130">
@@ -11823,14 +11783,14 @@
         <v>39038.768931796592</v>
       </c>
       <c r="X130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.2251396491211095E-2</v>
       </c>
       <c r="Y130">
         <v>40303.450839212979</v>
       </c>
       <c r="Z130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.5509083697239238E-2</v>
       </c>
       <c r="AA130">
@@ -11861,7 +11821,7 @@
         <v>128.55518900000001</v>
       </c>
       <c r="F131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.6533176591409083E-3</v>
       </c>
       <c r="G131">
@@ -11916,14 +11876,14 @@
         <v>37378.852906513173</v>
       </c>
       <c r="X131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5930833579526325E-2</v>
       </c>
       <c r="Y131">
         <v>38058.358733384157</v>
       </c>
       <c r="Z131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.6770597971212468E-2</v>
       </c>
       <c r="AA131">
@@ -11954,7 +11914,7 @@
         <v>128.54235299999999</v>
       </c>
       <c r="F132">
-        <f t="shared" si="3"/>
+        <f>(E132-E122)/E122</f>
         <v>7.9842038420102936E-3</v>
       </c>
       <c r="G132">
@@ -12009,14 +11969,14 @@
         <v>38652.015340033497</v>
       </c>
       <c r="X132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.9480973739397013E-2</v>
       </c>
       <c r="Y132">
         <v>39789.702620427372</v>
       </c>
       <c r="Z132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.943729566161937E-2</v>
       </c>
       <c r="AA132">
@@ -12047,7 +12007,7 @@
         <v>128.498965</v>
       </c>
       <c r="F133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.1476271778494627E-3</v>
       </c>
       <c r="G133">
@@ -12102,14 +12062,14 @@
         <v>38203.381638132261</v>
       </c>
       <c r="X133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5627181344655839E-2</v>
       </c>
       <c r="Y133">
         <v>39162.327105124932</v>
       </c>
       <c r="Z133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5201577588148821E-2</v>
       </c>
       <c r="AA133">
@@ -12140,7 +12100,7 @@
         <v>128.42357100000001</v>
       </c>
       <c r="F134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1479414546579836E-3</v>
       </c>
       <c r="G134">
@@ -12195,14 +12155,14 @@
         <v>38687.064697803813</v>
       </c>
       <c r="X134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.2289815231161843E-2</v>
       </c>
       <c r="Y134">
         <v>39235.846354093374</v>
       </c>
       <c r="Z134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.9520396584573863E-2</v>
       </c>
       <c r="AA134">
@@ -12233,7 +12193,7 @@
         <v>128.31419500000001</v>
       </c>
       <c r="F135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9977061710578421E-3</v>
       </c>
       <c r="G135">
@@ -12288,14 +12248,14 @@
         <v>39305.230415076061</v>
       </c>
       <c r="X135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.4702104451027078E-2</v>
       </c>
       <c r="Y135">
         <v>39666.531049039433</v>
       </c>
       <c r="Z135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5173901683241591E-2</v>
       </c>
       <c r="AA135">
@@ -12326,7 +12286,7 @@
         <v>128.16863900000001</v>
       </c>
       <c r="F136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.7733881874914847E-4</v>
       </c>
       <c r="G136">
@@ -12381,14 +12341,14 @@
         <v>38724.847503452067</v>
       </c>
       <c r="X136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.913223403371149E-2</v>
       </c>
       <c r="Y136">
         <v>39171.81331698467</v>
       </c>
       <c r="Z136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.9422990115424969E-3</v>
       </c>
       <c r="AA136">
@@ -12419,7 +12379,7 @@
         <v>127.985133</v>
       </c>
       <c r="F137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.6571598255183569E-3</v>
       </c>
       <c r="G137">
@@ -12474,14 +12434,14 @@
         <v>39804.904527465696</v>
       </c>
       <c r="X137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4798649813028111E-2</v>
       </c>
       <c r="Y137">
         <v>40274.205129747381</v>
       </c>
       <c r="Z137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1314614539294908E-2</v>
       </c>
       <c r="AA137">
@@ -12512,7 +12472,7 @@
         <v>127.763265</v>
       </c>
       <c r="F138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.1351421937488673E-3</v>
       </c>
       <c r="G138">
@@ -12567,14 +12527,14 @@
         <v>38999.320344545049</v>
       </c>
       <c r="X138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.2523527010718281E-4</v>
       </c>
       <c r="Y138">
         <v>39467.091734075519</v>
       </c>
       <c r="Z138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.9596225851239563E-2</v>
       </c>
       <c r="AA138">
@@ -12605,7 +12565,7 @@
         <v>127.502725</v>
       </c>
       <c r="F139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.7150027257680866E-3</v>
       </c>
       <c r="G139">
@@ -12660,14 +12620,14 @@
         <v>39241.259353476562</v>
       </c>
       <c r="X139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.3022898505049948E-2</v>
       </c>
       <c r="Y139">
         <v>39598.290938487793</v>
       </c>
       <c r="Z139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-3.4684615629290455E-2</v>
       </c>
       <c r="AA139">
@@ -12698,7 +12658,7 @@
         <v>127.202192</v>
       </c>
       <c r="F140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.0397293277852042E-2</v>
       </c>
       <c r="G140">
@@ -12753,14 +12713,14 @@
         <v>39175.983696884723</v>
       </c>
       <c r="X140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5148333014254182E-3</v>
       </c>
       <c r="Y140">
         <v>39352.128460176224</v>
       </c>
       <c r="Z140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.360399318738168E-2</v>
       </c>
       <c r="AA140">
@@ -12885,10 +12845,6 @@
       <c r="E142">
         <v>155.58397296844001</v>
       </c>
-      <c r="F142">
-        <f t="shared" si="6"/>
-        <v>0.21037128492925611</v>
-      </c>
       <c r="G142">
         <v>2.5832128524780269</v>
       </c>
@@ -12898,16 +12854,8 @@
       <c r="W142">
         <v>15733.91817482744</v>
       </c>
-      <c r="X142">
-        <f t="shared" si="7"/>
-        <v>-0.59293408024364591</v>
-      </c>
       <c r="Y142">
         <v>15911.84138550169</v>
-      </c>
-      <c r="Z142">
-        <f t="shared" si="8"/>
-        <v>-0.60010152532950023</v>
       </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.35">
@@ -12924,10 +12872,6 @@
       <c r="E143">
         <v>158.24770385810939</v>
       </c>
-      <c r="F143">
-        <f t="shared" si="6"/>
-        <v>0.23150956008174378</v>
-      </c>
       <c r="G143">
         <v>2.595999956130981</v>
       </c>
@@ -12949,16 +12893,8 @@
       <c r="W143">
         <v>16560.23080341021</v>
       </c>
-      <c r="X143">
-        <f t="shared" si="7"/>
-        <v>-0.56652447785196036</v>
-      </c>
       <c r="Y143">
         <v>16814.245547510651</v>
-      </c>
-      <c r="Z143">
-        <f t="shared" si="8"/>
-        <v>-0.57065254313474456</v>
       </c>
       <c r="AA143">
         <v>5.2517918257943913E-2</v>
@@ -12981,10 +12917,6 @@
       <c r="E144">
         <v>160.98089165584281</v>
       </c>
-      <c r="F144">
-        <f t="shared" si="6"/>
-        <v>0.25351514836667172</v>
-      </c>
       <c r="G144">
         <v>2.608850240707397</v>
       </c>
@@ -13006,16 +12938,8 @@
       <c r="W144">
         <v>16890.197165840538</v>
       </c>
-      <c r="X144">
-        <f t="shared" si="7"/>
-        <v>-0.56341487011808988</v>
-      </c>
       <c r="Y144">
         <v>17094.78355905303</v>
-      </c>
-      <c r="Z144">
-        <f t="shared" si="8"/>
-        <v>-0.56430700118516552</v>
       </c>
       <c r="AA144">
         <v>1.9925227271734819E-2</v>
@@ -13038,10 +12962,6 @@
       <c r="E145">
         <v>163.66914683650771</v>
       </c>
-      <c r="F145">
-        <f t="shared" si="6"/>
-        <v>0.27553422157624641</v>
-      </c>
       <c r="G145">
         <v>2.6217644214630131</v>
       </c>
@@ -13063,16 +12983,8 @@
       <c r="W145">
         <v>17429.46398351782</v>
       </c>
-      <c r="X145">
-        <f t="shared" si="7"/>
-        <v>-0.55656120573631063</v>
-      </c>
       <c r="Y145">
         <v>17586.408652054892</v>
-      </c>
-      <c r="Z145">
-        <f t="shared" si="8"/>
-        <v>-0.55664364422709545</v>
       </c>
       <c r="AA145">
         <v>3.1927798851745487E-2</v>
@@ -13095,10 +13007,6 @@
       <c r="E146">
         <v>166.57297567997881</v>
       </c>
-      <c r="F146">
-        <f t="shared" si="6"/>
-        <v>0.2996391081283058</v>
-      </c>
       <c r="G146">
         <v>2.6347424983978271</v>
       </c>
@@ -13126,16 +13034,8 @@
       <c r="W146">
         <v>17039.06944337035</v>
       </c>
-      <c r="X146">
-        <f t="shared" si="7"/>
-        <v>-0.55999647405063557</v>
-      </c>
       <c r="Y146">
         <v>17226.949559411059</v>
-      </c>
-      <c r="Z146">
-        <f t="shared" si="8"/>
-        <v>-0.56022077865000053</v>
       </c>
       <c r="AA146">
         <v>-2.239853965197364E-2</v>
@@ -13158,10 +13058,6 @@
       <c r="E147">
         <v>169.5411788384661</v>
       </c>
-      <c r="F147">
-        <f t="shared" si="6"/>
-        <v>0.32469432085104827</v>
-      </c>
       <c r="G147">
         <v>2.6477844715118408</v>
       </c>
@@ -13195,16 +13091,8 @@
       <c r="W147">
         <v>18016.987205865509</v>
       </c>
-      <c r="X147">
-        <f t="shared" si="7"/>
-        <v>-0.54736765683149302</v>
-      </c>
       <c r="Y147">
         <v>18205.358846423871</v>
-      </c>
-      <c r="Z147">
-        <f t="shared" si="8"/>
-        <v>-0.5479647881870422</v>
       </c>
       <c r="AA147">
         <v>5.7392674273984409E-2</v>
@@ -13227,10 +13115,6 @@
       <c r="E148">
         <v>172.57784109533941</v>
       </c>
-      <c r="F148">
-        <f t="shared" si="6"/>
-        <v>0.35076260844883234</v>
-      </c>
       <c r="G148">
         <v>2.662317276000977</v>
       </c>
@@ -13264,16 +13148,8 @@
       <c r="W148">
         <v>18098.39681720499</v>
       </c>
-      <c r="X148">
-        <f t="shared" si="7"/>
-        <v>-0.53593045577943088</v>
-      </c>
       <c r="Y148">
         <v>18296.603028285728</v>
-      </c>
-      <c r="Z148">
-        <f t="shared" si="8"/>
-        <v>-0.53640863249904447</v>
       </c>
       <c r="AA148">
         <v>4.5184919326015172E-3</v>
@@ -13296,10 +13172,6 @@
       <c r="E149">
         <v>175.72586826675851</v>
       </c>
-      <c r="F149">
-        <f t="shared" si="6"/>
-        <v>0.37821264813562622</v>
-      </c>
       <c r="G149">
         <v>2.6769299507141109</v>
       </c>
@@ -13333,16 +13205,8 @@
       <c r="W149">
         <v>18164.218117019289</v>
       </c>
-      <c r="X149">
-        <f t="shared" si="7"/>
-        <v>-0.53711429204144445</v>
-      </c>
       <c r="Y149">
         <v>18360.442784110732</v>
-      </c>
-      <c r="Z149">
-        <f t="shared" si="8"/>
-        <v>-0.53633244392713952</v>
       </c>
       <c r="AA149">
         <v>3.636858031078178E-3</v>
@@ -13365,10 +13229,6 @@
       <c r="E150">
         <v>178.68693084973671</v>
       </c>
-      <c r="F150">
-        <f t="shared" si="6"/>
-        <v>0.40474726135015593</v>
-      </c>
       <c r="G150">
         <v>2.6916227340698242</v>
       </c>
@@ -13402,16 +13262,8 @@
       <c r="W150">
         <v>17741.52835310547</v>
       </c>
-      <c r="X150">
-        <f t="shared" si="7"/>
-        <v>-0.54713253685276886</v>
-      </c>
       <c r="Y150">
         <v>17873.422442325791</v>
-      </c>
-      <c r="Z150">
-        <f t="shared" si="8"/>
-        <v>-0.54580798697042698</v>
       </c>
       <c r="AA150">
         <v>-2.327046290628763E-2</v>
@@ -13434,10 +13286,6 @@
       <c r="E151">
         <v>181.69906881561451</v>
       </c>
-      <c r="F151">
-        <f t="shared" si="6"/>
-        <v>0.43227682248376897</v>
-      </c>
       <c r="G151">
         <v>2.706396102905273</v>
       </c>
@@ -13471,16 +13319,8 @@
       <c r="W151">
         <v>18713.42281588952</v>
       </c>
-      <c r="X151">
-        <f t="shared" si="7"/>
-        <v>-0.52787864897894665</v>
-      </c>
       <c r="Y151">
         <v>18855.439228897041</v>
-      </c>
-      <c r="Z151">
-        <f t="shared" si="8"/>
-        <v>-0.52510254915877941</v>
       </c>
       <c r="AA151">
         <v>5.4780763158655953E-2</v>
@@ -13552,10 +13392,6 @@
       <c r="W152">
         <v>18900.7482995768</v>
       </c>
-      <c r="X152">
-        <f t="shared" si="7"/>
-        <v>0.20127409393903828</v>
-      </c>
       <c r="Y152">
         <v>19079.52491462891</v>
       </c>
@@ -15395,7 +15231,7 @@
         <v>30788.47069358615</v>
       </c>
       <c r="X172">
-        <f t="shared" si="7"/>
+        <f>(W172-W162)/W162</f>
         <v>0.21436080851152992</v>
       </c>
       <c r="Y172">
